--- a/Main_files/Result_worked_models.xlsx
+++ b/Main_files/Result_worked_models.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="2" r:id="rId3"/>
+    <sheet name="Info" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="507" uniqueCount="337">
   <si>
     <t>model_name</t>
   </si>
@@ -415,102 +414,24 @@
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied&gt;extrafile3_copied&gt;extrafile4_copied&gt;extrafile5_copied&gt;extrafile6_copied&gt;extrafile7_copied&gt;extrafile8_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>error_flag</t>
   </si>
   <si>
@@ -1024,9 +945,6 @@
     <t>there is another alternative policy regime version in the respective folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
     <t>2 alternative files in the same folder</t>
   </si>
   <si>
@@ -1036,12 +954,6 @@
     <t>other alternative files in same folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>sidefile copied from mmb-rep-master\US_LWY13\US_LWY13_rep and renamed from param.mat to paramfile_leeper.mat</t>
   </si>
   <si>
@@ -1075,42 +987,15 @@
     <t>other_sidefiles_1</t>
   </si>
   <si>
-    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegss.m;mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegssHH.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_GHP16\Replication\NK_GHP16_rep\parameterfile.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\parameterfile.mat</t>
-  </si>
-  <si>
     <t>models_current\US_CMR10\ss_CMR_baseline_US.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_CMR10\Replication files\steady_state\ss_parameters_US_FAM.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\RunDynarePruning.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Dynare_Unfold_Matrices.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\StateSpaceDynare_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\reduceControlsDynare.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Simulate_Pruning_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\hpf.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\make_irfs.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\loc.m</t>
-  </si>
-  <si>
     <t>models_current\US_FRB08\Sigma_US_FRB08.mat</t>
   </si>
   <si>
     <t>models_current\US_FRB08mx\Sigma_US_FRB08mx.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_param_FI.mat;mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_std_FI.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_KK14\multipliers\draws_ext.mat;mmb-rep-master\US_KK14\multipliers\setparams2.m</t>
-  </si>
-  <si>
     <t>models_current\US_VMDno\FIMSteadyStateMMB.mat</t>
   </si>
   <si>
@@ -1120,67 +1005,7 @@
     <t>rep_comment_1</t>
   </si>
   <si>
-    <t>new steadystate file</t>
-  </si>
-  <si>
-    <t>this is the version with Financial frictions, "NK_CW09_FF.mod" from the directory "mmb-rep-master\NK_CW09". There are also files "NK_CW09_NoFF.mod" and "NK_CW09_RepHH.mod".</t>
-  </si>
-  <si>
-    <t>there are lots of other files in the folder "mmb-rep-master\NK_DEFK17\NK_DEFK17_rep" where the taken version "DEFK_int.mod" came from</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>the chosen version is with imperfectly competitive labor market, a version with perfectly competitive labor market was also in folder "mmb-rep-master\NK_GLSV07\NK_GLSV07_rep"</t>
-  </si>
-  <si>
-    <t>there are 3 alternative policy regime versions of the .mod file in the replication folder</t>
-  </si>
-  <si>
-    <t>there is another alternative policy regime version in the respective folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>2 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>3 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>manual_adaption_comment_1</t>
-  </si>
-  <si>
-    <t>adapted starting from "mmb-rep-master\EA_ALSV06\ALSV06WPh_rep.mod"; Parameter directly put in .mod file, had been loaded from run.m file in old version; alternative file "mmb-rep-master\EA_ALSV06\ALSV06WP_rep.mod" would have been without habit formation</t>
-  </si>
-  <si>
-    <t>deleted close all and dynare &lt;early version&gt; calls</t>
-  </si>
-  <si>
-    <t>I deleted figure closing matlab statements</t>
-  </si>
-  <si>
-    <t>I had to come up with interest rate rule parameters and hard coded them into the mod file</t>
-  </si>
-  <si>
-    <t>I only changed the "stoch_simul()" command input "linear" to "order=1" from the file "mmb-rep-master\US_CCF12\US_CCF12_rep\chen_replication.mod"</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_endo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_exo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
   </si>
   <si>
     <t>error_loop_run_descr</t>
@@ -1210,7 +1035,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1248,9 +1073,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="true"/>
@@ -1291,70 +1119,70 @@
         <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -1367,9 +1195,7 @@
       <c r="C2" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="0">
         <v>0</v>
       </c>
@@ -1377,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -1426,9 +1252,7 @@
       <c r="C3" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="0">
         <v>0</v>
       </c>
@@ -1436,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -1485,9 +1309,7 @@
       <c r="C4" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="0">
         <v>0</v>
       </c>
@@ -1495,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -1544,9 +1366,7 @@
       <c r="C5" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0">
         <v>0</v>
       </c>
@@ -1554,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1603,9 +1423,7 @@
       <c r="C6" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0">
         <v>0</v>
       </c>
@@ -1613,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H6" s="0">
         <v>1</v>
@@ -1662,9 +1480,7 @@
       <c r="C7" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="0">
         <v>0</v>
       </c>
@@ -1672,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
@@ -1721,9 +1537,7 @@
       <c r="C8" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D8" s="0"/>
       <c r="E8" s="0">
         <v>0</v>
       </c>
@@ -1731,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
@@ -1780,9 +1594,7 @@
       <c r="C9" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="0">
         <v>0</v>
       </c>
@@ -1790,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1839,9 +1651,7 @@
       <c r="C10" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0">
         <v>0</v>
       </c>
@@ -1849,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
@@ -1873,7 +1683,7 @@
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="R10" s="0" t="b">
         <v>0</v>
@@ -1881,7 +1691,7 @@
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
@@ -1902,9 +1712,7 @@
       <c r="C11" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="0">
         <v>0</v>
       </c>
@@ -1912,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -1961,9 +1769,7 @@
       <c r="C12" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D12" s="0"/>
       <c r="E12" s="0">
         <v>0</v>
       </c>
@@ -1971,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
@@ -2020,9 +1826,7 @@
       <c r="C13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0">
         <v>0</v>
       </c>
@@ -2030,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="H13" s="0">
         <v>0</v>
@@ -2079,9 +1883,7 @@
       <c r="C14" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0">
         <v>0</v>
       </c>
@@ -2089,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -2138,9 +1940,7 @@
       <c r="C15" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0">
         <v>0</v>
       </c>
@@ -2148,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H15" s="0">
         <v>1</v>
@@ -2197,9 +1997,7 @@
       <c r="C16" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D16" s="0"/>
       <c r="E16" s="0">
         <v>0</v>
       </c>
@@ -2207,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
@@ -2256,9 +2054,7 @@
       <c r="C17" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="0">
         <v>0</v>
       </c>
@@ -2266,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -2287,23 +2083,23 @@
         <v>1</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="0"/>
       <c r="R17" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
@@ -2323,11 +2119,9 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D18" s="0"/>
       <c r="E18" s="0">
         <v>0</v>
       </c>
@@ -2335,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2382,11 +2176,9 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D19" s="0"/>
       <c r="E19" s="0">
         <v>0</v>
       </c>
@@ -2394,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
@@ -2416,7 +2208,7 @@
       </c>
       <c r="N19" s="0"/>
       <c r="O19" s="0" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
@@ -2424,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
@@ -2445,11 +2237,9 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D20" s="0"/>
       <c r="E20" s="0">
         <v>0</v>
       </c>
@@ -2457,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -2504,11 +2294,9 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D21" s="0"/>
       <c r="E21" s="0">
         <v>0</v>
       </c>
@@ -2516,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -2563,11 +2351,9 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D22" s="0"/>
       <c r="E22" s="0">
         <v>0</v>
       </c>
@@ -2575,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
@@ -2622,11 +2408,9 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D23" s="0"/>
       <c r="E23" s="0">
         <v>0</v>
       </c>
@@ -2634,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
@@ -2681,19 +2465,17 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="H24" s="0">
         <v>1</v>
@@ -2740,11 +2522,9 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D25" s="0"/>
       <c r="E25" s="0">
         <v>0</v>
       </c>
@@ -2752,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -2799,11 +2579,9 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D26" s="0"/>
       <c r="E26" s="0">
         <v>0</v>
       </c>
@@ -2811,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -2858,11 +2636,9 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D27" s="0"/>
       <c r="E27" s="0">
         <v>0</v>
       </c>
@@ -2870,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -2917,11 +2693,9 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D28" s="0"/>
       <c r="E28" s="0">
         <v>0</v>
       </c>
@@ -2929,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
@@ -2976,11 +2750,9 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D29" s="0"/>
       <c r="E29" s="0">
         <v>0</v>
       </c>
@@ -2988,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
@@ -3035,11 +2807,9 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D30" s="0"/>
       <c r="E30" s="0">
         <v>0</v>
       </c>
@@ -3047,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="H30" s="0">
         <v>1</v>
@@ -3094,11 +2864,9 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D31" s="0"/>
       <c r="E31" s="0">
         <v>0</v>
       </c>
@@ -3106,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
@@ -3153,11 +2921,9 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D32" s="0"/>
       <c r="E32" s="0">
         <v>0</v>
       </c>
@@ -3165,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -3212,11 +2978,9 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D33" s="0"/>
       <c r="E33" s="0">
         <v>0</v>
       </c>
@@ -3224,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -3271,11 +3035,9 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D34" s="0"/>
       <c r="E34" s="0">
         <v>0</v>
       </c>
@@ -3283,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H34" s="0">
         <v>1</v>
@@ -3330,11 +3092,9 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D35" s="0"/>
       <c r="E35" s="0">
         <v>0</v>
       </c>
@@ -3342,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -3389,11 +3149,9 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D36" s="0"/>
       <c r="E36" s="0">
         <v>0</v>
       </c>
@@ -3401,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -3448,11 +3206,9 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D37" s="0"/>
       <c r="E37" s="0">
         <v>0</v>
       </c>
@@ -3460,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -3507,11 +3263,9 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D38" s="0"/>
       <c r="E38" s="0">
         <v>0</v>
       </c>
@@ -3519,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H38" s="0">
         <v>1</v>
@@ -3566,11 +3320,9 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D39" s="0"/>
       <c r="E39" s="0">
         <v>0</v>
       </c>
@@ -3578,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -3625,11 +3377,9 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D40" s="0"/>
       <c r="E40" s="0">
         <v>0</v>
       </c>
@@ -3637,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -3684,11 +3434,9 @@
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D41" s="0"/>
       <c r="E41" s="0">
         <v>0</v>
       </c>
@@ -3696,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -3743,11 +3491,9 @@
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D42" s="0"/>
       <c r="E42" s="0">
         <v>0</v>
       </c>
@@ -3755,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -3802,11 +3548,9 @@
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D43" s="0"/>
       <c r="E43" s="0">
         <v>0</v>
       </c>
@@ -3814,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -3837,20 +3581,20 @@
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
       <c r="P43" s="0" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="R43" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S43" s="0"/>
       <c r="T43" s="0" t="s">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="V43" s="0"/>
       <c r="W43" s="0"/>
@@ -3869,11 +3613,9 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D44" s="0"/>
       <c r="E44" s="0">
         <v>0</v>
       </c>
@@ -3881,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -3904,20 +3646,20 @@
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="R44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S44" s="0"/>
       <c r="T44" s="0" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
@@ -3936,11 +3678,9 @@
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D45" s="0"/>
       <c r="E45" s="0">
         <v>0</v>
       </c>
@@ -3948,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -3969,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P45" s="0"/>
       <c r="Q45" s="0"/>
@@ -3980,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="T45" s="0"/>
       <c r="U45" s="0"/>
@@ -4001,11 +3741,9 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D46" s="0"/>
       <c r="E46" s="0">
         <v>0</v>
       </c>
@@ -4013,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="H46" s="0">
         <v>1</v>
@@ -4060,11 +3798,9 @@
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D47" s="0"/>
       <c r="E47" s="0">
         <v>0</v>
       </c>
@@ -4072,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -4093,11 +3829,11 @@
         <v>1</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="O47" s="0"/>
       <c r="P47" s="0" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Q47" s="0"/>
       <c r="R47" s="0" t="b">
@@ -4105,7 +3841,7 @@
       </c>
       <c r="S47" s="0"/>
       <c r="T47" s="0" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="U47" s="0"/>
       <c r="V47" s="0"/>
@@ -4125,11 +3861,9 @@
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D48" s="0"/>
       <c r="E48" s="0">
         <v>0</v>
       </c>
@@ -4137,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -4159,7 +3893,7 @@
       </c>
       <c r="N48" s="0"/>
       <c r="O48" s="0" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P48" s="0"/>
       <c r="Q48" s="0"/>
@@ -4167,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="T48" s="0"/>
       <c r="U48" s="0"/>
@@ -4188,11 +3922,9 @@
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D49" s="0"/>
       <c r="E49" s="0">
         <v>0</v>
       </c>
@@ -4200,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -4247,11 +3979,9 @@
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D50" s="0"/>
       <c r="E50" s="0">
         <v>0</v>
       </c>
@@ -4259,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H50" s="0">
         <v>1</v>
@@ -4280,11 +4010,11 @@
         <v>1</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="O50" s="0"/>
       <c r="P50" s="0" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Q50" s="0"/>
       <c r="R50" s="0" t="b">
@@ -4292,7 +4022,7 @@
       </c>
       <c r="S50" s="0"/>
       <c r="T50" s="0" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
@@ -4312,11 +4042,9 @@
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D51" s="0"/>
       <c r="E51" s="0">
         <v>0</v>
       </c>
@@ -4324,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="H51" s="0">
         <v>1</v>
@@ -4355,10 +4083,10 @@
       <c r="T51" s="0"/>
       <c r="U51" s="0"/>
       <c r="V51" s="0" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="X51" s="0">
         <v>1</v>
@@ -4375,11 +4103,9 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D52" s="0"/>
       <c r="E52" s="0">
         <v>0</v>
       </c>
@@ -4387,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -4410,7 +4136,7 @@
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
       <c r="P52" s="0" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="Q52" s="0"/>
       <c r="R52" s="0" t="b">
@@ -4418,7 +4144,7 @@
       </c>
       <c r="S52" s="0"/>
       <c r="T52" s="0" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0"/>
@@ -4438,11 +4164,9 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D53" s="0"/>
       <c r="E53" s="0">
         <v>0</v>
       </c>
@@ -4450,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -4473,7 +4197,7 @@
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
       <c r="P53" s="0" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="Q53" s="0"/>
       <c r="R53" s="0" t="b">
@@ -4481,7 +4205,7 @@
       </c>
       <c r="S53" s="0"/>
       <c r="T53" s="0" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="U53" s="0"/>
       <c r="V53" s="0"/>
@@ -4501,11 +4225,9 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D54" s="0"/>
       <c r="E54" s="0">
         <v>0</v>
       </c>
@@ -4513,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="H54" s="0">
         <v>1</v>
@@ -4560,11 +4282,9 @@
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D55" s="0"/>
       <c r="E55" s="0">
         <v>0</v>
       </c>
@@ -4572,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -4595,7 +4315,7 @@
       <c r="N55" s="0"/>
       <c r="O55" s="0"/>
       <c r="P55" s="0" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="Q55" s="0"/>
       <c r="R55" s="0" t="b">
@@ -4603,7 +4323,7 @@
       </c>
       <c r="S55" s="0"/>
       <c r="T55" s="0" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
@@ -4623,11 +4343,9 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D56" s="0"/>
       <c r="E56" s="0">
         <v>0</v>
       </c>
@@ -4635,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H56" s="0">
         <v>1</v>
@@ -4682,11 +4400,9 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D57" s="0"/>
       <c r="E57" s="0">
         <v>0</v>
       </c>
@@ -4694,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H57" s="0">
         <v>1</v>
@@ -4715,11 +4431,11 @@
         <v>1</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="O57" s="0"/>
       <c r="P57" s="0" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0" t="b">
@@ -4727,7 +4443,7 @@
       </c>
       <c r="S57" s="0"/>
       <c r="T57" s="0" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
@@ -4747,11 +4463,9 @@
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D58" s="0"/>
       <c r="E58" s="0">
         <v>0</v>
       </c>
@@ -4759,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="H58" s="0">
         <v>1</v>
@@ -4806,11 +4520,9 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D59" s="0"/>
       <c r="E59" s="0">
         <v>0</v>
       </c>
@@ -4818,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -4865,11 +4577,9 @@
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D60" s="0"/>
       <c r="E60" s="0">
         <v>0</v>
       </c>
@@ -4877,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -4924,11 +4634,9 @@
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D61" s="0"/>
       <c r="E61" s="0">
         <v>0</v>
       </c>
@@ -4936,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -4983,11 +4691,9 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D62" s="0"/>
       <c r="E62" s="0">
         <v>0</v>
       </c>
@@ -4995,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -5018,7 +4724,7 @@
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
       <c r="P62" s="0" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="Q62" s="0"/>
       <c r="R62" s="0" t="b">
@@ -5026,7 +4732,7 @@
       </c>
       <c r="S62" s="0"/>
       <c r="T62" s="0" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
@@ -5046,11 +4752,9 @@
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D63" s="0"/>
       <c r="E63" s="0">
         <v>0</v>
       </c>
@@ -5058,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="H63" s="0">
         <v>1</v>
@@ -5105,11 +4809,9 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D64" s="0"/>
       <c r="E64" s="0">
         <v>0</v>
       </c>
@@ -5117,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -5164,11 +4866,9 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D65" s="0"/>
       <c r="E65" s="0">
         <v>0</v>
       </c>
@@ -5176,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -5223,11 +4923,9 @@
         <v>1</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D66" s="0"/>
       <c r="E66" s="0">
         <v>0</v>
       </c>
@@ -5235,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -5258,7 +4956,7 @@
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
       <c r="P66" s="0" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="Q66" s="0"/>
       <c r="R66" s="0" t="b">
@@ -5266,7 +4964,7 @@
       </c>
       <c r="S66" s="0"/>
       <c r="T66" s="0" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="U66" s="0"/>
       <c r="V66" s="0"/>
@@ -5286,11 +4984,9 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D67" s="0"/>
       <c r="E67" s="0">
         <v>0</v>
       </c>
@@ -5298,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
@@ -5319,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="O67" s="0"/>
       <c r="P67" s="0"/>
@@ -5347,11 +5043,9 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D68" s="0"/>
       <c r="E68" s="0">
         <v>0</v>
       </c>
@@ -5359,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H68" s="0">
         <v>1</v>
@@ -5406,11 +5100,9 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D69" s="0"/>
       <c r="E69" s="0">
         <v>0</v>
       </c>
@@ -5418,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="H69" s="0">
         <v>0</v>
@@ -5465,11 +5157,9 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D70" s="0"/>
       <c r="E70" s="0">
         <v>0</v>
       </c>
@@ -5477,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="H70" s="0">
         <v>1</v>
@@ -5524,11 +5214,9 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D71" s="0"/>
       <c r="E71" s="0">
         <v>0</v>
       </c>
@@ -5536,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H71" s="0">
         <v>1</v>
@@ -5583,11 +5271,9 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D72" s="0"/>
       <c r="E72" s="0">
         <v>0</v>
       </c>
@@ -5595,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="H72" s="0">
         <v>1</v>
@@ -5642,11 +5328,9 @@
         <v>1</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D73" s="0"/>
       <c r="E73" s="0">
         <v>0</v>
       </c>
@@ -5654,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="H73" s="0">
         <v>0</v>
@@ -5678,7 +5362,7 @@
       <c r="O73" s="0"/>
       <c r="P73" s="0"/>
       <c r="Q73" s="0" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="R73" s="0" t="b">
         <v>0</v>
@@ -5686,7 +5370,7 @@
       <c r="S73" s="0"/>
       <c r="T73" s="0"/>
       <c r="U73" s="0" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="V73" s="0"/>
       <c r="W73" s="0"/>
@@ -5705,11 +5389,9 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D74" s="0"/>
       <c r="E74" s="0">
         <v>0</v>
       </c>
@@ -5717,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="H74" s="0">
         <v>1</v>
@@ -5764,11 +5446,9 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D75" s="0"/>
       <c r="E75" s="0">
         <v>0</v>
       </c>
@@ -5776,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="H75" s="0">
         <v>1</v>
@@ -5823,11 +5503,9 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D76" s="0"/>
       <c r="E76" s="0">
         <v>0</v>
       </c>
@@ -5835,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="H76" s="0">
         <v>0</v>
@@ -5882,11 +5560,9 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D77" s="0"/>
       <c r="E77" s="0">
         <v>0</v>
       </c>
@@ -5894,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="H77" s="0">
         <v>0</v>
@@ -5941,11 +5617,9 @@
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D78" s="0"/>
       <c r="E78" s="0">
         <v>0</v>
       </c>
@@ -5953,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="H78" s="0">
         <v>0</v>
@@ -6000,11 +5674,9 @@
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D79" s="0"/>
       <c r="E79" s="0">
         <v>0</v>
       </c>
@@ -6012,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="H79" s="0">
         <v>0</v>
@@ -6059,11 +5731,9 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D80" s="0"/>
       <c r="E80" s="0">
         <v>0</v>
       </c>
@@ -6071,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="H80" s="0">
         <v>1</v>
@@ -6118,11 +5788,9 @@
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D81" s="0"/>
       <c r="E81" s="0">
         <v>0</v>
       </c>
@@ -6130,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="H81" s="0">
         <v>0</v>
@@ -6153,7 +5821,7 @@
       <c r="N81" s="0"/>
       <c r="O81" s="0"/>
       <c r="P81" s="0" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="Q81" s="0"/>
       <c r="R81" s="0" t="b">
@@ -6161,7 +5829,7 @@
       </c>
       <c r="S81" s="0"/>
       <c r="T81" s="0" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="U81" s="0"/>
       <c r="V81" s="0"/>
@@ -6181,11 +5849,9 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D82" s="0"/>
       <c r="E82" s="0">
         <v>0</v>
       </c>
@@ -6193,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H82" s="0">
         <v>0</v>
@@ -6217,7 +5883,7 @@
       <c r="O82" s="0"/>
       <c r="P82" s="0"/>
       <c r="Q82" s="0" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="R82" s="0" t="b">
         <v>0</v>
@@ -6225,7 +5891,7 @@
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
       <c r="U82" s="0" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="V82" s="0"/>
       <c r="W82" s="0"/>
@@ -6244,11 +5910,9 @@
         <v>1</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D83" s="0"/>
       <c r="E83" s="0">
         <v>0</v>
       </c>
@@ -6256,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="H83" s="0">
         <v>1</v>
@@ -6303,11 +5967,9 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D84" s="0"/>
       <c r="E84" s="0">
         <v>0</v>
       </c>
@@ -6315,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="H84" s="0">
         <v>0</v>
@@ -6362,11 +6024,9 @@
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D85" s="0"/>
       <c r="E85" s="0">
         <v>0</v>
       </c>
@@ -6374,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H85" s="0">
         <v>0</v>
@@ -6397,7 +6057,7 @@
       <c r="N85" s="0"/>
       <c r="O85" s="0"/>
       <c r="P85" s="0" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="Q85" s="0"/>
       <c r="R85" s="0" t="b">
@@ -6405,7 +6065,7 @@
       </c>
       <c r="S85" s="0"/>
       <c r="T85" s="0" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="U85" s="0"/>
       <c r="V85" s="0"/>
@@ -6425,11 +6085,9 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D86" s="0"/>
       <c r="E86" s="0">
         <v>0</v>
       </c>
@@ -6437,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="H86" s="0">
         <v>0</v>
@@ -6459,21 +6117,21 @@
       </c>
       <c r="N86" s="0"/>
       <c r="O86" s="0" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P86" s="0"/>
       <c r="Q86" s="0" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="R86" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S86" s="0" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="T86" s="0"/>
       <c r="U86" s="0" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="V86" s="0"/>
       <c r="W86" s="0"/>
@@ -6492,11 +6150,9 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D87" s="0"/>
       <c r="E87" s="0">
         <v>0</v>
       </c>
@@ -6504,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="H87" s="0">
         <v>0</v>
@@ -6526,21 +6182,21 @@
       </c>
       <c r="N87" s="0"/>
       <c r="O87" s="0" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P87" s="0"/>
       <c r="Q87" s="0" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="R87" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="T87" s="0"/>
       <c r="U87" s="0" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="V87" s="0"/>
       <c r="W87" s="0"/>
@@ -6559,11 +6215,9 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D88" s="0"/>
       <c r="E88" s="0">
         <v>0</v>
       </c>
@@ -6571,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="H88" s="0">
         <v>0</v>
@@ -6593,7 +6247,7 @@
       </c>
       <c r="N88" s="0"/>
       <c r="O88" s="0" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="P88" s="0"/>
       <c r="Q88" s="0"/>
@@ -6601,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="T88" s="0"/>
       <c r="U88" s="0"/>
@@ -6622,11 +6276,9 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D89" s="0"/>
       <c r="E89" s="0">
         <v>0</v>
       </c>
@@ -6634,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H89" s="0">
         <v>0</v>
@@ -6656,20 +6308,20 @@
       </c>
       <c r="N89" s="0"/>
       <c r="O89" s="0" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="Q89" s="0"/>
       <c r="R89" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S89" s="0" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="T89" s="0" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="U89" s="0"/>
       <c r="V89" s="0"/>
@@ -6689,11 +6341,9 @@
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D90" s="0"/>
       <c r="E90" s="0">
         <v>0</v>
       </c>
@@ -6701,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="H90" s="0">
         <v>1</v>
@@ -6722,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="O90" s="0"/>
       <c r="P90" s="0"/>
@@ -6750,11 +6400,9 @@
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D91" s="0"/>
       <c r="E91" s="0">
         <v>0</v>
       </c>
@@ -6762,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="H91" s="0">
         <v>0</v>
@@ -6783,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="O91" s="0"/>
       <c r="P91" s="0"/>
@@ -6811,11 +6459,9 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D92" s="0"/>
       <c r="E92" s="0">
         <v>0</v>
       </c>
@@ -6823,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="H92" s="0">
         <v>1</v>
@@ -6870,11 +6516,9 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D93" s="0"/>
       <c r="E93" s="0">
         <v>0</v>
       </c>
@@ -6882,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="H93" s="0">
         <v>1</v>
@@ -6929,11 +6573,9 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D94" s="0"/>
       <c r="E94" s="0">
         <v>0</v>
       </c>
@@ -6941,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="H94" s="0">
         <v>0</v>
@@ -6988,11 +6630,9 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D95" s="0"/>
       <c r="E95" s="0">
         <v>0</v>
       </c>
@@ -7000,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="H95" s="0">
         <v>0</v>
@@ -7047,11 +6687,9 @@
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D96" s="0"/>
       <c r="E96" s="0">
         <v>0</v>
       </c>
@@ -7059,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="H96" s="0">
         <v>0</v>
@@ -7106,11 +6744,9 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D97" s="0"/>
       <c r="E97" s="0">
         <v>0</v>
       </c>
@@ -7118,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="H97" s="0">
         <v>0</v>
@@ -7140,7 +6776,7 @@
       </c>
       <c r="N97" s="0"/>
       <c r="O97" s="0" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="P97" s="0"/>
       <c r="Q97" s="0"/>
@@ -7148,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="S97" s="0" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="T97" s="0"/>
       <c r="U97" s="0"/>
@@ -7169,11 +6805,9 @@
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D98" s="0"/>
       <c r="E98" s="0">
         <v>0</v>
       </c>
@@ -7181,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="H98" s="0">
         <v>1</v>
@@ -7228,11 +6862,9 @@
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D99" s="0"/>
       <c r="E99" s="0">
         <v>0</v>
       </c>
@@ -7240,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H99" s="0">
         <v>0</v>
@@ -7287,11 +6919,9 @@
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D100" s="0"/>
       <c r="E100" s="0">
         <v>0</v>
       </c>
@@ -7299,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="H100" s="0">
         <v>1</v>
@@ -7346,11 +6976,9 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D101" s="0"/>
       <c r="E101" s="0">
         <v>0</v>
       </c>
@@ -7358,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="H101" s="0">
         <v>0</v>
@@ -7380,7 +7008,7 @@
       </c>
       <c r="N101" s="0"/>
       <c r="O101" s="0" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="P101" s="0"/>
       <c r="Q101" s="0"/>
@@ -7388,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="T101" s="0"/>
       <c r="U101" s="0"/>
@@ -7409,11 +7037,9 @@
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D102" s="0"/>
       <c r="E102" s="0">
         <v>0</v>
       </c>
@@ -7421,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="H102" s="0">
         <v>0</v>
@@ -7443,7 +7069,7 @@
       </c>
       <c r="N102" s="0"/>
       <c r="O102" s="0" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="P102" s="0"/>
       <c r="Q102" s="0"/>
@@ -7451,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="T102" s="0"/>
       <c r="U102" s="0"/>
@@ -7472,11 +7098,9 @@
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D103" s="0"/>
       <c r="E103" s="0">
         <v>0</v>
       </c>
@@ -7484,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="H103" s="0">
         <v>0</v>
@@ -7507,7 +7131,7 @@
       <c r="N103" s="0"/>
       <c r="O103" s="0"/>
       <c r="P103" s="0" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="Q103" s="0"/>
       <c r="R103" s="0" t="b">
@@ -7515,7 +7139,7 @@
       </c>
       <c r="S103" s="0"/>
       <c r="T103" s="0" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="U103" s="0"/>
       <c r="V103" s="0"/>
@@ -7535,11 +7159,9 @@
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D104" s="0"/>
       <c r="E104" s="0">
         <v>0</v>
       </c>
@@ -7547,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H104" s="0">
         <v>1</v>
@@ -7568,11 +7190,11 @@
         <v>1</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="O104" s="0"/>
       <c r="P104" s="0" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="Q104" s="0"/>
       <c r="R104" s="0" t="b">
@@ -7580,7 +7202,7 @@
       </c>
       <c r="S104" s="0"/>
       <c r="T104" s="0" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="U104" s="0"/>
       <c r="V104" s="0"/>
@@ -7600,11 +7222,9 @@
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D105" s="0"/>
       <c r="E105" s="0">
         <v>0</v>
       </c>
@@ -7612,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="H105" s="0">
         <v>1</v>
@@ -7633,11 +7253,11 @@
         <v>1</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="O105" s="0"/>
       <c r="P105" s="0" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="Q105" s="0"/>
       <c r="R105" s="0" t="b">
@@ -7645,7 +7265,7 @@
       </c>
       <c r="S105" s="0"/>
       <c r="T105" s="0" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="U105" s="0"/>
       <c r="V105" s="0"/>
@@ -7665,11 +7285,9 @@
         <v>1</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D106" s="0"/>
       <c r="E106" s="0">
         <v>0</v>
       </c>
@@ -7677,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H106" s="0">
         <v>0</v>
@@ -7699,20 +7317,20 @@
       </c>
       <c r="N106" s="0"/>
       <c r="O106" s="0" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Q106" s="0"/>
       <c r="R106" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="T106" s="0" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="U106" s="0"/>
       <c r="V106" s="0"/>
@@ -7732,11 +7350,9 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D107" s="0"/>
       <c r="E107" s="0">
         <v>0</v>
       </c>
@@ -7744,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H107" s="0">
         <v>1</v>
@@ -7791,11 +7407,9 @@
         <v>1</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D108" s="0"/>
       <c r="E108" s="0">
         <v>0</v>
       </c>
@@ -7803,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="H108" s="0">
         <v>1</v>
@@ -7850,11 +7464,9 @@
         <v>1</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D109" s="0"/>
       <c r="E109" s="0">
         <v>0</v>
       </c>
@@ -7862,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H109" s="0">
         <v>1</v>
@@ -7909,11 +7521,9 @@
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D110" s="0"/>
       <c r="E110" s="0">
         <v>0</v>
       </c>
@@ -7921,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="H110" s="0">
         <v>1</v>
@@ -7968,11 +7578,9 @@
         <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D111" s="0"/>
       <c r="E111" s="0">
         <v>0</v>
       </c>
@@ -7980,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H111" s="0">
         <v>0</v>
@@ -8002,20 +7610,20 @@
       </c>
       <c r="N111" s="0"/>
       <c r="O111" s="0" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Q111" s="0"/>
       <c r="R111" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="T111" s="0" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="U111" s="0"/>
       <c r="V111" s="0"/>
@@ -8035,11 +7643,9 @@
         <v>1</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D112" s="0"/>
       <c r="E112" s="0">
         <v>0</v>
       </c>
@@ -8047,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="H112" s="0">
         <v>0</v>
@@ -8070,7 +7676,7 @@
       <c r="N112" s="0"/>
       <c r="O112" s="0"/>
       <c r="P112" s="0" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Q112" s="0"/>
       <c r="R112" s="0" t="b">
@@ -8078,7 +7684,7 @@
       </c>
       <c r="S112" s="0"/>
       <c r="T112" s="0" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="U112" s="0"/>
       <c r="V112" s="0"/>
@@ -8098,11 +7704,9 @@
         <v>1</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D113" s="0"/>
       <c r="E113" s="0">
         <v>0</v>
       </c>
@@ -8110,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H113" s="0">
         <v>0</v>
@@ -8157,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D114" s="0"/>
       <c r="E114" s="0">
@@ -8167,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="H114" s="0">
         <v>0</v>
@@ -8214,11 +7818,9 @@
         <v>1</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D115" s="0"/>
       <c r="E115" s="0">
         <v>0</v>
       </c>
@@ -8226,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H115" s="0">
         <v>0</v>
@@ -8273,11 +7875,9 @@
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D116" s="0"/>
       <c r="E116" s="0">
         <v>0</v>
       </c>
@@ -8285,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="H116" s="0">
         <v>0</v>
@@ -8332,11 +7932,9 @@
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D117" s="0"/>
       <c r="E117" s="0">
         <v>0</v>
       </c>
@@ -8344,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="H117" s="0">
         <v>1</v>
@@ -8366,10 +7964,10 @@
       </c>
       <c r="N117" s="0"/>
       <c r="O117" s="0" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="Q117" s="0"/>
       <c r="R117" s="0" t="b">
@@ -8395,11 +7993,9 @@
         <v>1</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D118" s="0"/>
       <c r="E118" s="0">
         <v>0</v>
       </c>
@@ -8407,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="H118" s="0">
         <v>0</v>
@@ -8454,11 +8050,9 @@
         <v>1</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D119" s="0"/>
       <c r="E119" s="0">
         <v>0</v>
       </c>
@@ -8466,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="H119" s="0">
         <v>1</v>
@@ -8513,11 +8107,9 @@
         <v>1</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D120" s="0"/>
       <c r="E120" s="0">
         <v>0</v>
       </c>
@@ -8525,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="H120" s="0">
         <v>0</v>
@@ -8572,11 +8164,9 @@
         <v>1</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D121" s="0"/>
       <c r="E121" s="0">
         <v>0</v>
       </c>
@@ -8584,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="H121" s="0">
         <v>1</v>
@@ -8631,11 +8221,9 @@
         <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D122" s="0"/>
       <c r="E122" s="0">
         <v>0</v>
       </c>
@@ -8643,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H122" s="0">
         <v>0</v>
@@ -8690,11 +8278,9 @@
         <v>1</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D123" s="0"/>
       <c r="E123" s="0">
         <v>0</v>
       </c>
@@ -8702,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H123" s="0">
         <v>0</v>
@@ -8749,11 +8335,9 @@
         <v>1</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D124" s="0"/>
       <c r="E124" s="0">
         <v>0</v>
       </c>
@@ -8761,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="H124" s="0">
         <v>1</v>
@@ -8808,11 +8392,9 @@
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D125" s="0"/>
       <c r="E125" s="0">
         <v>0</v>
       </c>
@@ -8820,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H125" s="0">
         <v>1</v>
@@ -8867,11 +8449,9 @@
         <v>1</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D126" s="0"/>
       <c r="E126" s="0">
         <v>0</v>
       </c>
@@ -8879,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H126" s="0">
         <v>0</v>
@@ -8926,11 +8506,9 @@
         <v>1</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D127" s="0"/>
       <c r="E127" s="0">
         <v>0</v>
       </c>
@@ -8938,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="H127" s="0">
         <v>0</v>
@@ -8960,7 +8538,7 @@
       </c>
       <c r="N127" s="0"/>
       <c r="O127" s="0" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="P127" s="0"/>
       <c r="Q127" s="0"/>
@@ -8968,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="S127" s="0" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="T127" s="0"/>
       <c r="U127" s="0"/>
@@ -8989,11 +8567,9 @@
         <v>1</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D128" s="0"/>
       <c r="E128" s="0">
         <v>0</v>
       </c>
@@ -9001,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="H128" s="0">
         <v>0</v>
@@ -9023,7 +8599,7 @@
       </c>
       <c r="N128" s="0"/>
       <c r="O128" s="0" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="P128" s="0"/>
       <c r="Q128" s="0"/>
@@ -9031,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="S128" s="0" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="T128" s="0"/>
       <c r="U128" s="0"/>
@@ -9052,11 +8628,9 @@
         <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D129" s="0"/>
       <c r="E129" s="0">
         <v>0</v>
       </c>
@@ -9064,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="H129" s="0">
         <v>0</v>

--- a/Main_files/Result_worked_models.xlsx
+++ b/Main_files/Result_worked_models.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="507" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="418">
   <si>
     <t>model_name</t>
   </si>
@@ -27,9 +28,69 @@
     <t>CA_LS07</t>
   </si>
   <si>
+    <t>CA_ToTEM10</t>
+  </si>
+  <si>
     <t>CL_MS07</t>
   </si>
   <si>
+    <t>DEREA_GEAR16</t>
+  </si>
+  <si>
+    <t>EA_ALSV06</t>
+  </si>
+  <si>
+    <t>EA_AWM05</t>
+  </si>
+  <si>
+    <t>EA_BE15</t>
+  </si>
+  <si>
+    <t>EA_BF17</t>
+  </si>
+  <si>
+    <t>EA_CKL09</t>
+  </si>
+  <si>
+    <t>EA_CW05fm</t>
+  </si>
+  <si>
+    <t>EA_CW05ta</t>
+  </si>
+  <si>
+    <t>EA_DKR11</t>
+  </si>
+  <si>
+    <t>EA_GE10</t>
+  </si>
+  <si>
+    <t>EA_GNSS10</t>
+  </si>
+  <si>
+    <t>EA_PV15</t>
+  </si>
+  <si>
+    <t>EA_QR14</t>
+  </si>
+  <si>
+    <t>EA_QUEST3</t>
+  </si>
+  <si>
+    <t>EA_SR07</t>
+  </si>
+  <si>
+    <t>EA_SW03</t>
+  </si>
+  <si>
+    <t>EA_SWW14</t>
+  </si>
+  <si>
+    <t>EA_VI16bgg</t>
+  </si>
+  <si>
+    <t>EA_VI16gk</t>
+  </si>
+  <si>
     <t>EACZ_GEM03</t>
   </si>
   <si>
@@ -42,58 +103,10 @@
     <t>EAUS_NAWMctww</t>
   </si>
   <si>
-    <t>EA_ALSV06</t>
-  </si>
-  <si>
-    <t>EA_AWM05</t>
-  </si>
-  <si>
-    <t>EA_BE15</t>
-  </si>
-  <si>
-    <t>EA_BF17</t>
-  </si>
-  <si>
-    <t>EA_CKL09</t>
-  </si>
-  <si>
-    <t>EA_CW05fm</t>
-  </si>
-  <si>
-    <t>EA_CW05ta</t>
-  </si>
-  <si>
-    <t>EA_DKR11</t>
-  </si>
-  <si>
-    <t>EA_GE10</t>
-  </si>
-  <si>
-    <t>EA_GNSS10</t>
-  </si>
-  <si>
-    <t>EA_PV15</t>
-  </si>
-  <si>
-    <t>EA_QR14</t>
-  </si>
-  <si>
-    <t>EA_QUEST3</t>
-  </si>
-  <si>
-    <t>EA_SR07</t>
-  </si>
-  <si>
-    <t>EA_SW03</t>
-  </si>
-  <si>
-    <t>EA_SWW14</t>
-  </si>
-  <si>
-    <t>EA_VI16bgg</t>
-  </si>
-  <si>
-    <t>EA_VI16gk</t>
+    <t>ESREA_FIMOD12</t>
+  </si>
+  <si>
+    <t>FI_AINO16</t>
   </si>
   <si>
     <t>G2_SIGMA08</t>
@@ -156,6 +169,9 @@
     <t>NK_FLMF18</t>
   </si>
   <si>
+    <t>NK_FNL23</t>
+  </si>
+  <si>
     <t>NK_GHP16</t>
   </si>
   <si>
@@ -240,6 +256,9 @@
     <t>RBC_DTT11</t>
   </si>
   <si>
+    <t>UK_SM11</t>
+  </si>
+  <si>
     <t>US_ACELm</t>
   </si>
   <si>
@@ -255,6 +274,9 @@
     <t>US_AJ16</t>
   </si>
   <si>
+    <t>US_BB18</t>
+  </si>
+  <si>
     <t>US_BKM12</t>
   </si>
   <si>
@@ -288,6 +310,9 @@
     <t>US_CMR14noFA</t>
   </si>
   <si>
+    <t>US_CPS10</t>
+  </si>
+  <si>
     <t>US_DG08</t>
   </si>
   <si>
@@ -297,12 +322,12 @@
     <t>US_DNGS15_SW</t>
   </si>
   <si>
+    <t>US_DNGS15_SWpi</t>
+  </si>
+  <si>
     <t>US_DNGS15_SWSP</t>
   </si>
   <si>
-    <t>US_DNGS15_SWpi</t>
-  </si>
-  <si>
     <t>US_FGKR15</t>
   </si>
   <si>
@@ -321,6 +346,9 @@
     <t>US_FRB08mx</t>
   </si>
   <si>
+    <t>US_FRB22</t>
+  </si>
+  <si>
     <t>US_FU19</t>
   </si>
   <si>
@@ -378,6 +406,9 @@
     <t>US_PM08fl</t>
   </si>
   <si>
+    <t>US_PV15</t>
+  </si>
+  <si>
     <t>US_RA07</t>
   </si>
   <si>
@@ -411,24 +442,114 @@
     <t>&gt;modfile copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied&gt;extrafile3_copied&gt;extrafile4_copied&gt;extrafile5_copied&gt;extrafile6_copied&gt;extrafile7_copied&gt;extrafile8_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
@@ -450,9 +571,66 @@
     <t>mmb-rep-master\CA_LS07\CA_LS07_rep\CA_LS07_rep.mod</t>
   </si>
   <si>
+    <t>MT_rep_files\CA_ToTEM10_rep_MT.mod</t>
+  </si>
+  <si>
     <t>MT_rep_files\CL_MS07_rep_MT.mod</t>
   </si>
   <si>
+    <t>MT_rep_files\ALSV06WPh_rep_MT.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_AWM05\EA_AWM05_rep\AW_Replicate_KW_IRF_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_BE15\EA_BE15_rep\EA_BE15_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_BF17\EA_BF17_rep.mod</t>
+  </si>
+  <si>
+    <t>MT_rep_files\EA_CKL09_rep_MT.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_CW05fm\EA_CW05fm_rep\EA_CW05fm_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_CW05ta\EA_CW05ta_rep\EA_CW05ta_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\EA_DKR11_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_GE10\EA_GEL10_rep\EA_GEL10_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\EA_GNSS10_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_PV15\EA_PV15_rep\EA_PV15_bg_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_QR14\optimalTRandREG.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_QUEST3\EA_QUEST3_rep\EA_QUEST3_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_SR07\EA_SR07_rep\EA_SR07_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_SW03\EA_SW03_rep\EA_SW03_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_SWW14\EA_SWW14_rep\EA_SWW14_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_VI16bgg\EA_VI16bgg_rep\EA_VI16bgg_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_VI16\EA_VI16_replication\EA_VI16_rep.mod</t>
+  </si>
+  <si>
     <t>mmb-rep-master\EACZ_GEM03\EACZ_GEM03_rep\EACZ_GEM03_rep.mod</t>
   </si>
   <si>
@@ -465,58 +643,7 @@
     <t>MT_rep_files\EAUS_NAWMctww_rep_MT.mod</t>
   </si>
   <si>
-    <t>MT_rep_files\ALSV06WPh_rep_MT.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_AWM05\EA_AWM05_rep\AW_Replicate_KW_IRF_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_BE15\EA_BE15_rep\EA_BE15_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_BF17\EA_BF17_rep.mod</t>
-  </si>
-  <si>
-    <t>MT_rep_files\EA_CKL09_rep_MT.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_CW05fm\EA_CW05fm_rep\EA_CW05fm_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_CW05ta\EA_CW05ta_rep\EA_CW05ta_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\EA_DKR11_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GE10\EA_GEL10_rep\EA_GEL10_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\EA_GNSS10_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_PV15\EA_PV15_rep\EA_PV15_bg_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_QR14\optimalTRandREG.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_QUEST3\EA_QUEST3_rep\EA_QUEST3_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_SR07\EA_SR07_rep\EA_SR07_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_SW03\EA_SW03_rep\EA_SW03_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_SWW14\EA_SWW14_rep\EA_SWW14_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_VI16bgg\EA_VI16bgg_rep\EA_VI16bgg_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_VI16\EA_VI16_replication\EA_VI16_rep.mod</t>
+    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\FI_AINO16_rep.mod</t>
   </si>
   <si>
     <t>mmb-rep-master\G2_SIGMA08\G2_SIGMA08_rep\G2_SIGMA08_rep.mod</t>
@@ -711,6 +838,9 @@
     <t>MT_rep_files\US_CMR14noFA_rep_MT.mod</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_CPS10\US_CPS10_rep\US_CPS10_rep1.mod</t>
+  </si>
+  <si>
     <t>mmb-rep-master\US_DG08\US_DG08_rep\US_DG08_rep.mod</t>
   </si>
   <si>
@@ -720,12 +850,12 @@
     <t>MT_rep_files\US_DNGS15_SW_rep_MT.mod</t>
   </si>
   <si>
+    <t>MT_rep_files\US_DNGS15_SWpi_rep_MT.mod</t>
+  </si>
+  <si>
     <t>MT_rep_files\US_DNGS15_SWSP_rep_MT.mod</t>
   </si>
   <si>
-    <t>MT_rep_files\US_DNGS15_SWpi_rep_MT.mod</t>
-  </si>
-  <si>
     <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\main_code_FGKR.mod</t>
   </si>
   <si>
@@ -798,6 +928,9 @@
     <t>mmb-rep-master\US_PM08fl\US_PM08fl_rep\US_PM08fl_rep.mod</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_PV15\US_PV15_rep\US_PV15_rep.mod</t>
+  </si>
+  <si>
     <t>mmb-rep-master\US_RA07\replication_code\replication_code.mod</t>
   </si>
   <si>
@@ -843,6 +976,9 @@
     <t>steadystate_file</t>
   </si>
   <si>
+    <t>MT_rep_files\CA_ToTEM10_rep_MT_steadystate_2.m</t>
+  </si>
+  <si>
     <t>models\EA_DKR11\steadystate\EA_DKR11_steadystate.m</t>
   </si>
   <si>
@@ -882,6 +1018,9 @@
     <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
   </si>
   <si>
+    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\all_parameters_February2016.mat</t>
+  </si>
+  <si>
     <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
   </si>
   <si>
@@ -945,6 +1084,9 @@
     <t>there is another alternative policy regime version in the respective folder</t>
   </si>
   <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
     <t>2 alternative files in the same folder</t>
   </si>
   <si>
@@ -954,6 +1096,12 @@
     <t>other alternative files in same folder</t>
   </si>
   <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
     <t>sidefile copied from mmb-rep-master\US_LWY13\US_LWY13_rep and renamed from param.mat to paramfile_leeper.mat</t>
   </si>
   <si>
@@ -987,15 +1135,45 @@
     <t>other_sidefiles_1</t>
   </si>
   <si>
+    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegss.m;mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegssHH.m</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\all_parameters_February2016.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\NK_GHP16\Replication\NK_GHP16_rep\parameterfile.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\parameterfile.mat</t>
+  </si>
+  <si>
     <t>models_current\US_CMR10\ss_CMR_baseline_US.mat</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_CMR10\Replication files\steady_state\ss_parameters_US_FAM.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\RunDynarePruning.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Dynare_Unfold_Matrices.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\StateSpaceDynare_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\reduceControlsDynare.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Simulate_Pruning_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\hpf.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\make_irfs.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\loc.m</t>
+  </si>
+  <si>
     <t>models_current\US_FRB08\Sigma_US_FRB08.mat</t>
   </si>
   <si>
     <t>models_current\US_FRB08mx\Sigma_US_FRB08mx.mat</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_param_FI.mat;mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_std_FI.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_KK14\multipliers\draws_ext.mat;mmb-rep-master\US_KK14\multipliers\setparams2.m</t>
+  </si>
+  <si>
     <t>models_current\US_VMDno\FIMSteadyStateMMB.mat</t>
   </si>
   <si>
@@ -1005,16 +1183,91 @@
     <t>rep_comment_1</t>
   </si>
   <si>
+    <t>new steadystate file</t>
+  </si>
+  <si>
+    <t>this is the version with Financial frictions, "NK_CW09_FF.mod" from the directory "mmb-rep-master\NK_CW09". There are also files "NK_CW09_NoFF.mod" and "NK_CW09_RepHH.mod".</t>
+  </si>
+  <si>
+    <t>there are lots of other files in the folder "mmb-rep-master\NK_DEFK17\NK_DEFK17_rep" where the taken version "DEFK_int.mod" came from</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>the chosen version is with imperfectly competitive labor market, a version with perfectly competitive labor market was also in folder "mmb-rep-master\NK_GLSV07\NK_GLSV07_rep"</t>
+  </si>
+  <si>
+    <t>there are 3 alternative policy regime versions of the .mod file in the replication folder</t>
+  </si>
+  <si>
+    <t>there is another alternative policy regime version in the respective folder</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>2 alternative files in the same folder</t>
+  </si>
+  <si>
+    <t>3 alternative files in the same folder</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
     <t>manual_adaption_comment_1</t>
   </si>
   <si>
+    <t>adapted starting from "mmb-rep-master\EA_ALSV06\ALSV06WPh_rep.mod"; Parameter directly put in .mod file, had been loaded from run.m file in old version; alternative file "mmb-rep-master\EA_ALSV06\ALSV06WP_rep.mod" would have been without habit formation</t>
+  </si>
+  <si>
+    <t>deleted close all and dynare &lt;early version&gt; calls</t>
+  </si>
+  <si>
+    <t>I deleted figure closing matlab statements</t>
+  </si>
+  <si>
+    <t>I had to come up with interest rate rule parameters and hard coded them into the mod file</t>
+  </si>
+  <si>
+    <t>I only changed the "stoch_simul()" command input "linear" to "order=1" from the file "mmb-rep-master\US_CCF12\US_CCF12_rep\chen_replication.mod"</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_endo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_exo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
+  </si>
+  <si>
     <t>error_loop_run_descr</t>
   </si>
   <si>
+    <t>there seems to be a problem with the parameters supplied to the model via the microsoft access table link</t>
+  </si>
+  <si>
     <t>after running dynare, the commands call for an error</t>
   </si>
   <si>
     <t>error_loop_run_matlab_error_msg</t>
+  </si>
+  <si>
+    <t>Error using eval
+Must be a text scalar.
+Error in FI_AINO16_rep.driver (line 932)
+M_.params(i) = eval(['pp.' name]);
+Error in dynare (line 281)
+    evalin('base',[fname '.driver']);
+Error in mmb_loop_Max (line 61)
+eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict'])
+Error in testing_routine (line 11)
+mmb_loop_Max</t>
   </si>
   <si>
     <t>Dot indexing is not supported for variables of this type.
@@ -1035,7 +1288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1073,12 +1326,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y129"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y139"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="true"/>
@@ -1102,7 +1352,7 @@
     <col min="19" max="19" width="563.140625" customWidth="true"/>
     <col min="20" max="20" width="164.42578125" customWidth="true"/>
     <col min="21" max="21" width="240" customWidth="true"/>
-    <col min="22" max="22" width="47.140625" customWidth="true"/>
+    <col min="22" max="22" width="95" customWidth="true"/>
     <col min="23" max="23" width="77.7109375" customWidth="true"/>
     <col min="24" max="24" width="9.5703125" customWidth="true"/>
     <col min="25" max="25" width="15.7109375" customWidth="true"/>
@@ -1113,76 +1363,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
@@ -1193,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0">
@@ -1203,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -1250,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0">
@@ -1260,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -1307,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0">
@@ -1317,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -1364,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0">
@@ -1374,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1392,17 +1642,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>0</v>
-      </c>
-      <c r="N5" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>320</v>
+      </c>
       <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
+      <c r="P5" s="0" t="s">
+        <v>349</v>
+      </c>
       <c r="Q5" s="0"/>
       <c r="R5" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
+      <c r="T5" s="0" t="s">
+        <v>389</v>
+      </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
@@ -1421,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0">
@@ -1431,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -1478,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0">
@@ -1487,27 +1743,13 @@
       <c r="F7" s="0">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="0">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0">
-        <v>0</v>
-      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
@@ -1520,9 +1762,7 @@
       <c r="U7" s="0"/>
       <c r="V7" s="0"/>
       <c r="W7" s="0"/>
-      <c r="X7" s="0">
-        <v>0</v>
-      </c>
+      <c r="X7" s="0"/>
       <c r="Y7" s="0" t="b">
         <v>0</v>
       </c>
@@ -1535,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0">
@@ -1545,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="H8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1560,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="0">
         <v>0</v>
@@ -1568,13 +1808,17 @@
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
+      <c r="Q8" s="0" t="s">
+        <v>364</v>
+      </c>
       <c r="R8" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
+      <c r="U8" s="0" t="s">
+        <v>403</v>
+      </c>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0">
@@ -1592,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0">
@@ -1602,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
       </c>
       <c r="I9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1649,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0">
@@ -1659,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -1674,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -1682,17 +1926,13 @@
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
-      <c r="Q10" s="0" t="s">
-        <v>315</v>
-      </c>
+      <c r="Q10" s="0"/>
       <c r="R10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
-      <c r="U10" s="0" t="s">
-        <v>315</v>
-      </c>
+      <c r="U10" s="0"/>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0">
@@ -1710,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0">
@@ -1720,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -1729,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0">
         <v>0</v>
@@ -1767,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0">
@@ -1777,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="H12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
@@ -1824,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0">
@@ -1834,16 +2074,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0">
         <v>0</v>
@@ -1881,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0">
@@ -1891,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="H14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
@@ -1938,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0">
@@ -1948,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H15" s="0">
         <v>1</v>
@@ -1966,17 +2206,27 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
-      </c>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>349</v>
+      </c>
       <c r="Q15" s="0"/>
       <c r="R15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>389</v>
+      </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
@@ -1984,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1995,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0">
@@ -2005,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2017,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -2052,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0">
@@ -2062,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -2080,27 +2330,21 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" s="0"/>
       <c r="O17" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>303</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>303</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="T17" s="0"/>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
@@ -2119,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0">
@@ -2129,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2176,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0">
@@ -2186,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="H19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2198,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -2207,17 +2451,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="0"/>
-      <c r="O19" s="0" t="s">
-        <v>288</v>
-      </c>
+      <c r="O19" s="0"/>
       <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
       <c r="R19" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
@@ -2226,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2237,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0">
@@ -2247,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="H20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
@@ -2259,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -2294,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0">
@@ -2304,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="H21" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="0">
         <v>0</v>
@@ -2316,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="0">
         <v>0</v>
@@ -2351,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0">
@@ -2361,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
@@ -2408,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0">
@@ -2418,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
@@ -2465,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0">
@@ -2475,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H24" s="0">
         <v>1</v>
@@ -2522,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0">
@@ -2532,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="H25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -2544,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -2579,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0">
@@ -2589,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -2636,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0">
@@ -2646,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -2658,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -2693,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0">
@@ -2703,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
@@ -2750,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0">
@@ -2760,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="H29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -2807,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0">
@@ -2816,27 +3056,13 @@
       <c r="F30" s="0">
         <v>0</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="0">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0">
-        <v>0</v>
-      </c>
-      <c r="K30" s="0">
-        <v>0</v>
-      </c>
-      <c r="L30" s="0">
-        <v>0</v>
-      </c>
-      <c r="M30" s="0">
-        <v>0</v>
-      </c>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
       <c r="P30" s="0"/>
@@ -2849,9 +3075,7 @@
       <c r="U30" s="0"/>
       <c r="V30" s="0"/>
       <c r="W30" s="0"/>
-      <c r="X30" s="0">
-        <v>0</v>
-      </c>
+      <c r="X30" s="0"/>
       <c r="Y30" s="0" t="b">
         <v>0</v>
       </c>
@@ -2864,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0">
@@ -2874,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
@@ -2895,22 +3119,30 @@
         <v>0</v>
       </c>
       <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
+      <c r="O31" s="0" t="s">
+        <v>334</v>
+      </c>
       <c r="P31" s="0"/>
       <c r="Q31" s="0"/>
       <c r="R31" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S31" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>375</v>
+      </c>
       <c r="T31" s="0"/>
       <c r="U31" s="0"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
+      <c r="V31" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>414</v>
+      </c>
       <c r="X31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2921,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0">
@@ -2931,16 +3163,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -2978,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0">
@@ -2988,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="H33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -3035,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0">
@@ -3045,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="H34" s="0">
         <v>1</v>
@@ -3092,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0">
@@ -3102,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="H35" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="0">
         <v>0</v>
@@ -3114,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="0">
         <v>0</v>
@@ -3149,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0">
@@ -3159,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -3168,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -3206,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0">
@@ -3216,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -3263,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0">
@@ -3273,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="H38" s="0">
         <v>1</v>
@@ -3320,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0">
@@ -3330,19 +3562,19 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
       </c>
       <c r="I39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -3377,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0">
@@ -3387,19 +3619,19 @@
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
       </c>
       <c r="K40" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -3434,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0">
@@ -3444,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -3491,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0">
@@ -3501,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="H42" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="0">
         <v>0</v>
@@ -3548,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="0">
@@ -3558,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -3573,29 +3805,21 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q43" s="0" t="s">
-        <v>316</v>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
       <c r="R43" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S43" s="0"/>
-      <c r="T43" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="U43" s="0" t="s">
-        <v>316</v>
-      </c>
+      <c r="T43" s="0"/>
+      <c r="U43" s="0"/>
       <c r="V43" s="0"/>
       <c r="W43" s="0"/>
       <c r="X43" s="0">
@@ -3613,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="0">
@@ -3623,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -3638,29 +3862,21 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
       </c>
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
-      <c r="P44" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q44" s="0" t="s">
-        <v>317</v>
-      </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
       <c r="R44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S44" s="0"/>
-      <c r="T44" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="U44" s="0" t="s">
-        <v>317</v>
-      </c>
+      <c r="T44" s="0"/>
+      <c r="U44" s="0"/>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
       <c r="X44" s="0">
@@ -3678,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0">
@@ -3688,40 +3904,34 @@
         <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
       </c>
       <c r="M45" s="0">
-        <v>1</v>
-      </c>
-      <c r="N45" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
       <c r="P45" s="0"/>
       <c r="Q45" s="0"/>
       <c r="R45" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S45" s="0" t="s">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="0"/>
       <c r="V45" s="0"/>
@@ -3730,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3741,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0">
@@ -3751,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="H46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -3798,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0">
@@ -3808,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -3817,33 +4027,35 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N47" s="0"/>
       <c r="O47" s="0"/>
       <c r="P47" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q47" s="0"/>
+        <v>350</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>365</v>
+      </c>
       <c r="R47" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S47" s="0"/>
       <c r="T47" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="U47" s="0"/>
+        <v>390</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>404</v>
+      </c>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
       <c r="X47" s="0">
@@ -3861,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="0">
@@ -3871,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -3883,35 +4095,39 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="0">
         <v>0</v>
       </c>
       <c r="N48" s="0"/>
-      <c r="O48" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="P48" s="0"/>
-      <c r="Q48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>366</v>
+      </c>
       <c r="R48" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S48" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="T48" s="0"/>
-      <c r="U48" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>405</v>
+      </c>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
       <c r="X48" s="0">
         <v>0</v>
       </c>
       <c r="Y48" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3922,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0">
@@ -3932,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -3950,16 +4166,22 @@
         <v>0</v>
       </c>
       <c r="M49" s="0">
-        <v>0</v>
-      </c>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>335</v>
+      </c>
       <c r="P49" s="0"/>
       <c r="Q49" s="0"/>
       <c r="R49" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S49" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>376</v>
+      </c>
       <c r="T49" s="0"/>
       <c r="U49" s="0"/>
       <c r="V49" s="0"/>
@@ -3968,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3979,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0">
@@ -3989,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="H50" s="0">
         <v>1</v>
@@ -4007,23 +4229,17 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>1</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" s="0"/>
       <c r="O50" s="0"/>
-      <c r="P50" s="0" t="s">
-        <v>306</v>
-      </c>
+      <c r="P50" s="0"/>
       <c r="Q50" s="0"/>
       <c r="R50" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S50" s="0"/>
-      <c r="T50" s="0" t="s">
-        <v>306</v>
-      </c>
+      <c r="T50" s="0"/>
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
@@ -4042,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0">
@@ -4052,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="H51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -4070,26 +4286,28 @@
         <v>0</v>
       </c>
       <c r="M51" s="0">
-        <v>0</v>
-      </c>
-      <c r="N51" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>323</v>
+      </c>
       <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
+      <c r="P51" s="0" t="s">
+        <v>352</v>
+      </c>
       <c r="Q51" s="0"/>
       <c r="R51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
+      <c r="T51" s="0" t="s">
+        <v>392</v>
+      </c>
       <c r="U51" s="0"/>
-      <c r="V51" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="W51" s="0" t="s">
-        <v>334</v>
-      </c>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
       <c r="X51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0" t="b">
         <v>0</v>
@@ -4103,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0">
@@ -4112,46 +4330,26 @@
       <c r="F52" s="0">
         <v>0</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H52" s="0">
-        <v>0</v>
-      </c>
-      <c r="I52" s="0">
-        <v>0</v>
-      </c>
-      <c r="J52" s="0">
-        <v>0</v>
-      </c>
-      <c r="K52" s="0">
-        <v>1</v>
-      </c>
-      <c r="L52" s="0">
-        <v>0</v>
-      </c>
-      <c r="M52" s="0">
-        <v>0</v>
-      </c>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
-      <c r="P52" s="0" t="s">
-        <v>307</v>
-      </c>
+      <c r="P52" s="0"/>
       <c r="Q52" s="0"/>
       <c r="R52" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S52" s="0"/>
-      <c r="T52" s="0" t="s">
-        <v>307</v>
-      </c>
+      <c r="T52" s="0"/>
       <c r="U52" s="0"/>
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
-      <c r="X52" s="0">
-        <v>0</v>
-      </c>
+      <c r="X52" s="0"/>
       <c r="Y52" s="0" t="b">
         <v>0</v>
       </c>
@@ -4164,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0">
@@ -4174,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -4195,18 +4393,18 @@
         <v>0</v>
       </c>
       <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0" t="s">
-        <v>308</v>
-      </c>
+      <c r="O53" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="P53" s="0"/>
       <c r="Q53" s="0"/>
       <c r="R53" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0" t="s">
-        <v>308</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="T53" s="0"/>
       <c r="U53" s="0"/>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
@@ -4214,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4225,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0">
@@ -4235,10 +4433,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
@@ -4247,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -4282,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0">
@@ -4292,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="H55" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -4304,18 +4502,20 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0</v>
-      </c>
-      <c r="N55" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>324</v>
+      </c>
       <c r="O55" s="0"/>
       <c r="P55" s="0" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="Q55" s="0"/>
       <c r="R55" s="0" t="b">
@@ -4323,7 +4523,7 @@
       </c>
       <c r="S55" s="0"/>
       <c r="T55" s="0" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
@@ -4343,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="0">
@@ -4353,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="H56" s="0">
         <v>1</v>
@@ -4383,10 +4583,14 @@
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="0"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
+      <c r="V56" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="W56" s="0" t="s">
+        <v>415</v>
+      </c>
       <c r="X56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="0" t="b">
         <v>0</v>
@@ -4400,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0">
@@ -4410,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="H57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
@@ -4422,20 +4626,18 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N57" s="0"/>
       <c r="O57" s="0"/>
       <c r="P57" s="0" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0" t="b">
@@ -4443,7 +4645,7 @@
       </c>
       <c r="S57" s="0"/>
       <c r="T57" s="0" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
@@ -4463,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="0">
@@ -4473,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -4485,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="0">
         <v>0</v>
@@ -4495,13 +4697,17 @@
       </c>
       <c r="N58" s="0"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
+      <c r="P58" s="0" t="s">
+        <v>354</v>
+      </c>
       <c r="Q58" s="0"/>
       <c r="R58" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
+      <c r="T58" s="0" t="s">
+        <v>394</v>
+      </c>
       <c r="U58" s="0"/>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>
@@ -4520,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0">
@@ -4530,16 +4736,16 @@
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="H59" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -4577,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="0">
@@ -4587,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -4596,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -4609,13 +4815,17 @@
       </c>
       <c r="N60" s="0"/>
       <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
+      <c r="P60" s="0" t="s">
+        <v>355</v>
+      </c>
       <c r="Q60" s="0"/>
       <c r="R60" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
+      <c r="T60" s="0" t="s">
+        <v>395</v>
+      </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
@@ -4634,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D61" s="0"/>
       <c r="E61" s="0">
@@ -4644,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="H61" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -4691,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0">
@@ -4701,10 +4911,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="H62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -4713,18 +4923,20 @@
         <v>0</v>
       </c>
       <c r="K62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>0</v>
-      </c>
-      <c r="N62" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="O62" s="0"/>
       <c r="P62" s="0" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="Q62" s="0"/>
       <c r="R62" s="0" t="b">
@@ -4732,7 +4944,7 @@
       </c>
       <c r="S62" s="0"/>
       <c r="T62" s="0" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
@@ -4752,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D63" s="0"/>
       <c r="E63" s="0">
@@ -4762,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="H63" s="0">
         <v>1</v>
@@ -4809,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="0">
@@ -4819,16 +5031,16 @@
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -4866,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="0">
@@ -4876,16 +5088,16 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
       </c>
       <c r="I65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="0">
         <v>0</v>
@@ -4923,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D66" s="0"/>
       <c r="E66" s="0">
@@ -4933,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -4945,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -4955,17 +5167,13 @@
       </c>
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
-      <c r="P66" s="0" t="s">
-        <v>311</v>
-      </c>
+      <c r="P66" s="0"/>
       <c r="Q66" s="0"/>
       <c r="R66" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S66" s="0"/>
-      <c r="T66" s="0" t="s">
-        <v>311</v>
-      </c>
+      <c r="T66" s="0"/>
       <c r="U66" s="0"/>
       <c r="V66" s="0"/>
       <c r="W66" s="0"/>
@@ -4984,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D67" s="0"/>
       <c r="E67" s="0">
@@ -4994,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
@@ -5012,19 +5220,21 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>1</v>
-      </c>
-      <c r="N67" s="0" t="s">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N67" s="0"/>
       <c r="O67" s="0"/>
-      <c r="P67" s="0"/>
+      <c r="P67" s="0" t="s">
+        <v>357</v>
+      </c>
       <c r="Q67" s="0"/>
       <c r="R67" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S67" s="0"/>
-      <c r="T67" s="0"/>
+      <c r="T67" s="0" t="s">
+        <v>397</v>
+      </c>
       <c r="U67" s="0"/>
       <c r="V67" s="0"/>
       <c r="W67" s="0"/>
@@ -5043,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D68" s="0"/>
       <c r="E68" s="0">
@@ -5053,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="H68" s="0">
         <v>1</v>
@@ -5100,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="0">
@@ -5110,19 +5320,19 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="H69" s="0">
         <v>0</v>
       </c>
       <c r="I69" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="0">
         <v>0</v>
       </c>
       <c r="K69" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="0">
         <v>0</v>
@@ -5157,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="0">
@@ -5167,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="H70" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="0">
         <v>0</v>
@@ -5214,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D71" s="0"/>
       <c r="E71" s="0">
@@ -5224,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="H71" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="0">
         <v>0</v>
@@ -5236,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="0">
         <v>0</v>
@@ -5246,13 +5456,17 @@
       </c>
       <c r="N71" s="0"/>
       <c r="O71" s="0"/>
-      <c r="P71" s="0"/>
+      <c r="P71" s="0" t="s">
+        <v>358</v>
+      </c>
       <c r="Q71" s="0"/>
       <c r="R71" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S71" s="0"/>
-      <c r="T71" s="0"/>
+      <c r="T71" s="0" t="s">
+        <v>398</v>
+      </c>
       <c r="U71" s="0"/>
       <c r="V71" s="0"/>
       <c r="W71" s="0"/>
@@ -5271,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D72" s="0"/>
       <c r="E72" s="0">
@@ -5281,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="H72" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="0">
         <v>0</v>
@@ -5293,15 +5507,17 @@
         <v>0</v>
       </c>
       <c r="K72" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="0">
         <v>0</v>
       </c>
       <c r="M72" s="0">
-        <v>0</v>
-      </c>
-      <c r="N72" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>326</v>
+      </c>
       <c r="O72" s="0"/>
       <c r="P72" s="0"/>
       <c r="Q72" s="0"/>
@@ -5328,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D73" s="0"/>
       <c r="E73" s="0">
@@ -5338,13 +5554,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="H73" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="0">
         <v>0</v>
@@ -5361,17 +5577,13 @@
       <c r="N73" s="0"/>
       <c r="O73" s="0"/>
       <c r="P73" s="0"/>
-      <c r="Q73" s="0" t="s">
-        <v>318</v>
-      </c>
+      <c r="Q73" s="0"/>
       <c r="R73" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S73" s="0"/>
       <c r="T73" s="0"/>
-      <c r="U73" s="0" t="s">
-        <v>318</v>
-      </c>
+      <c r="U73" s="0"/>
       <c r="V73" s="0"/>
       <c r="W73" s="0"/>
       <c r="X73" s="0">
@@ -5389,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D74" s="0"/>
       <c r="E74" s="0">
@@ -5399,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="H74" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="0">
         <v>0</v>
@@ -5411,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="0">
         <v>0</v>
@@ -5446,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D75" s="0"/>
       <c r="E75" s="0">
@@ -5456,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="H75" s="0">
         <v>1</v>
@@ -5503,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D76" s="0"/>
       <c r="E76" s="0">
@@ -5513,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H76" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="0">
         <v>0</v>
@@ -5525,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="0">
         <v>0</v>
@@ -5560,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D77" s="0"/>
       <c r="E77" s="0">
@@ -5570,13 +5782,13 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="H77" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="0">
         <v>0</v>
@@ -5617,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D78" s="0"/>
       <c r="E78" s="0">
@@ -5627,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="H78" s="0">
         <v>0</v>
@@ -5650,13 +5862,17 @@
       <c r="N78" s="0"/>
       <c r="O78" s="0"/>
       <c r="P78" s="0"/>
-      <c r="Q78" s="0"/>
+      <c r="Q78" s="0" t="s">
+        <v>367</v>
+      </c>
       <c r="R78" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S78" s="0"/>
       <c r="T78" s="0"/>
-      <c r="U78" s="0"/>
+      <c r="U78" s="0" t="s">
+        <v>406</v>
+      </c>
       <c r="V78" s="0"/>
       <c r="W78" s="0"/>
       <c r="X78" s="0">
@@ -5674,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D79" s="0"/>
       <c r="E79" s="0">
@@ -5684,13 +5900,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="H79" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="0">
         <v>0</v>
@@ -5731,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D80" s="0"/>
       <c r="E80" s="0">
@@ -5741,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="H80" s="0">
         <v>1</v>
@@ -5788,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D81" s="0"/>
       <c r="E81" s="0">
@@ -5797,46 +6013,26 @@
       <c r="F81" s="0">
         <v>0</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="H81" s="0">
-        <v>0</v>
-      </c>
-      <c r="I81" s="0">
-        <v>0</v>
-      </c>
-      <c r="J81" s="0">
-        <v>0</v>
-      </c>
-      <c r="K81" s="0">
-        <v>1</v>
-      </c>
-      <c r="L81" s="0">
-        <v>0</v>
-      </c>
-      <c r="M81" s="0">
-        <v>0</v>
-      </c>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
       <c r="N81" s="0"/>
       <c r="O81" s="0"/>
-      <c r="P81" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="P81" s="0"/>
       <c r="Q81" s="0"/>
       <c r="R81" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S81" s="0"/>
-      <c r="T81" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="T81" s="0"/>
       <c r="U81" s="0"/>
       <c r="V81" s="0"/>
       <c r="W81" s="0"/>
-      <c r="X81" s="0">
-        <v>0</v>
-      </c>
+      <c r="X81" s="0"/>
       <c r="Y81" s="0" t="b">
         <v>0</v>
       </c>
@@ -5849,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="0">
@@ -5859,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="H82" s="0">
         <v>0</v>
@@ -5871,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="K82" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" s="0">
         <v>0</v>
@@ -5882,17 +6078,13 @@
       <c r="N82" s="0"/>
       <c r="O82" s="0"/>
       <c r="P82" s="0"/>
-      <c r="Q82" s="0" t="s">
-        <v>319</v>
-      </c>
+      <c r="Q82" s="0"/>
       <c r="R82" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
-      <c r="U82" s="0" t="s">
-        <v>319</v>
-      </c>
+      <c r="U82" s="0"/>
       <c r="V82" s="0"/>
       <c r="W82" s="0"/>
       <c r="X82" s="0">
@@ -5910,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D83" s="0"/>
       <c r="E83" s="0">
@@ -5920,13 +6112,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="H83" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="0">
         <v>0</v>
@@ -5967,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D84" s="0"/>
       <c r="E84" s="0">
@@ -5977,16 +6169,16 @@
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="H84" s="0">
         <v>0</v>
       </c>
       <c r="I84" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="0">
         <v>0</v>
@@ -6024,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D85" s="0"/>
       <c r="E85" s="0">
@@ -6034,19 +6226,19 @@
         <v>0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="H85" s="0">
         <v>0</v>
       </c>
       <c r="I85" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="0">
         <v>0</v>
       </c>
       <c r="K85" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="0">
         <v>0</v>
@@ -6056,17 +6248,13 @@
       </c>
       <c r="N85" s="0"/>
       <c r="O85" s="0"/>
-      <c r="P85" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="P85" s="0"/>
       <c r="Q85" s="0"/>
       <c r="R85" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S85" s="0"/>
-      <c r="T85" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="T85" s="0"/>
       <c r="U85" s="0"/>
       <c r="V85" s="0"/>
       <c r="W85" s="0"/>
@@ -6085,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D86" s="0"/>
       <c r="E86" s="0">
@@ -6095,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="H86" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="0">
         <v>0</v>
@@ -6110,36 +6298,28 @@
         <v>0</v>
       </c>
       <c r="L86" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" s="0">
         <v>0</v>
       </c>
       <c r="N86" s="0"/>
-      <c r="O86" s="0" t="s">
-        <v>291</v>
-      </c>
+      <c r="O86" s="0"/>
       <c r="P86" s="0"/>
-      <c r="Q86" s="0" t="s">
-        <v>320</v>
-      </c>
+      <c r="Q86" s="0"/>
       <c r="R86" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S86" s="0" t="s">
-        <v>291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S86" s="0"/>
       <c r="T86" s="0"/>
-      <c r="U86" s="0" t="s">
-        <v>320</v>
-      </c>
+      <c r="U86" s="0"/>
       <c r="V86" s="0"/>
       <c r="W86" s="0"/>
       <c r="X86" s="0">
         <v>0</v>
       </c>
       <c r="Y86" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -6150,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D87" s="0"/>
       <c r="E87" s="0">
@@ -6159,52 +6339,28 @@
       <c r="F87" s="0">
         <v>0</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="H87" s="0">
-        <v>0</v>
-      </c>
-      <c r="I87" s="0">
-        <v>0</v>
-      </c>
-      <c r="J87" s="0">
-        <v>0</v>
-      </c>
-      <c r="K87" s="0">
-        <v>0</v>
-      </c>
-      <c r="L87" s="0">
-        <v>1</v>
-      </c>
-      <c r="M87" s="0">
-        <v>0</v>
-      </c>
+      <c r="G87" s="0"/>
+      <c r="H87" s="0"/>
+      <c r="I87" s="0"/>
+      <c r="J87" s="0"/>
+      <c r="K87" s="0"/>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
       <c r="N87" s="0"/>
-      <c r="O87" s="0" t="s">
-        <v>291</v>
-      </c>
+      <c r="O87" s="0"/>
       <c r="P87" s="0"/>
-      <c r="Q87" s="0" t="s">
-        <v>321</v>
-      </c>
+      <c r="Q87" s="0"/>
       <c r="R87" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S87" s="0" t="s">
-        <v>291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S87" s="0"/>
       <c r="T87" s="0"/>
-      <c r="U87" s="0" t="s">
-        <v>321</v>
-      </c>
+      <c r="U87" s="0"/>
       <c r="V87" s="0"/>
       <c r="W87" s="0"/>
-      <c r="X87" s="0">
-        <v>0</v>
-      </c>
+      <c r="X87" s="0"/>
       <c r="Y87" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6215,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D88" s="0"/>
       <c r="E88" s="0">
@@ -6225,19 +6381,19 @@
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="H88" s="0">
         <v>0</v>
       </c>
       <c r="I88" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="0">
         <v>0</v>
       </c>
       <c r="K88" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="0">
         <v>0</v>
@@ -6246,18 +6402,18 @@
         <v>0</v>
       </c>
       <c r="N88" s="0"/>
-      <c r="O88" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="P88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0" t="s">
+        <v>359</v>
+      </c>
       <c r="Q88" s="0"/>
       <c r="R88" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S88" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="T88" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="0"/>
+      <c r="T88" s="0" t="s">
+        <v>399</v>
+      </c>
       <c r="U88" s="0"/>
       <c r="V88" s="0"/>
       <c r="W88" s="0"/>
@@ -6265,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -6276,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D89" s="0"/>
       <c r="E89" s="0">
@@ -6286,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H89" s="0">
         <v>0</v>
@@ -6298,39 +6454,35 @@
         <v>0</v>
       </c>
       <c r="K89" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" s="0">
         <v>0</v>
       </c>
       <c r="N89" s="0"/>
-      <c r="O89" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="P89" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0" t="s">
+        <v>368</v>
+      </c>
       <c r="R89" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S89" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="T89" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="U89" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="0"/>
+      <c r="T89" s="0"/>
+      <c r="U89" s="0" t="s">
+        <v>407</v>
+      </c>
       <c r="V89" s="0"/>
       <c r="W89" s="0"/>
       <c r="X89" s="0">
         <v>0</v>
       </c>
       <c r="Y89" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -6341,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D90" s="0"/>
       <c r="E90" s="0">
@@ -6351,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="H90" s="0">
         <v>1</v>
@@ -6369,11 +6521,9 @@
         <v>0</v>
       </c>
       <c r="M90" s="0">
-        <v>1</v>
-      </c>
-      <c r="N90" s="0" t="s">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N90" s="0"/>
       <c r="O90" s="0"/>
       <c r="P90" s="0"/>
       <c r="Q90" s="0"/>
@@ -6400,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D91" s="0"/>
       <c r="E91" s="0">
@@ -6410,16 +6560,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="H91" s="0">
         <v>0</v>
       </c>
       <c r="I91" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="0">
         <v>0</v>
@@ -6428,11 +6578,9 @@
         <v>0</v>
       </c>
       <c r="M91" s="0">
-        <v>1</v>
-      </c>
-      <c r="N91" s="0" t="s">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N91" s="0"/>
       <c r="O91" s="0"/>
       <c r="P91" s="0"/>
       <c r="Q91" s="0"/>
@@ -6459,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D92" s="0"/>
       <c r="E92" s="0">
@@ -6469,10 +6617,10 @@
         <v>0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="H92" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="0">
         <v>0</v>
@@ -6481,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="0">
         <v>0</v>
@@ -6491,13 +6639,17 @@
       </c>
       <c r="N92" s="0"/>
       <c r="O92" s="0"/>
-      <c r="P92" s="0"/>
+      <c r="P92" s="0" t="s">
+        <v>359</v>
+      </c>
       <c r="Q92" s="0"/>
       <c r="R92" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S92" s="0"/>
-      <c r="T92" s="0"/>
+      <c r="T92" s="0" t="s">
+        <v>399</v>
+      </c>
       <c r="U92" s="0"/>
       <c r="V92" s="0"/>
       <c r="W92" s="0"/>
@@ -6516,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="0">
@@ -6526,10 +6678,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="H93" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="0">
         <v>0</v>
@@ -6541,28 +6693,36 @@
         <v>0</v>
       </c>
       <c r="L93" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="0">
         <v>0</v>
       </c>
       <c r="N93" s="0"/>
-      <c r="O93" s="0"/>
+      <c r="O93" s="0" t="s">
+        <v>337</v>
+      </c>
       <c r="P93" s="0"/>
-      <c r="Q93" s="0"/>
+      <c r="Q93" s="0" t="s">
+        <v>369</v>
+      </c>
       <c r="R93" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S93" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S93" s="0" t="s">
+        <v>378</v>
+      </c>
       <c r="T93" s="0"/>
-      <c r="U93" s="0"/>
+      <c r="U93" s="0" t="s">
+        <v>408</v>
+      </c>
       <c r="V93" s="0"/>
       <c r="W93" s="0"/>
       <c r="X93" s="0">
         <v>0</v>
       </c>
       <c r="Y93" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -6573,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="0">
@@ -6583,13 +6743,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="H94" s="0">
         <v>0</v>
       </c>
       <c r="I94" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="0">
         <v>0</v>
@@ -6598,28 +6758,36 @@
         <v>0</v>
       </c>
       <c r="L94" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" s="0">
         <v>0</v>
       </c>
       <c r="N94" s="0"/>
-      <c r="O94" s="0"/>
+      <c r="O94" s="0" t="s">
+        <v>337</v>
+      </c>
       <c r="P94" s="0"/>
-      <c r="Q94" s="0"/>
+      <c r="Q94" s="0" t="s">
+        <v>370</v>
+      </c>
       <c r="R94" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S94" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>378</v>
+      </c>
       <c r="T94" s="0"/>
-      <c r="U94" s="0"/>
+      <c r="U94" s="0" t="s">
+        <v>409</v>
+      </c>
       <c r="V94" s="0"/>
       <c r="W94" s="0"/>
       <c r="X94" s="0">
         <v>0</v>
       </c>
       <c r="Y94" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6630,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D95" s="0"/>
       <c r="E95" s="0">
@@ -6640,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="H95" s="0">
         <v>0</v>
@@ -6661,13 +6829,17 @@
         <v>0</v>
       </c>
       <c r="N95" s="0"/>
-      <c r="O95" s="0"/>
+      <c r="O95" s="0" t="s">
+        <v>338</v>
+      </c>
       <c r="P95" s="0"/>
       <c r="Q95" s="0"/>
       <c r="R95" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S95" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>379</v>
+      </c>
       <c r="T95" s="0"/>
       <c r="U95" s="0"/>
       <c r="V95" s="0"/>
@@ -6676,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -6687,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D96" s="0"/>
       <c r="E96" s="0">
@@ -6697,19 +6869,19 @@
         <v>0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="H96" s="0">
         <v>0</v>
       </c>
       <c r="I96" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="0">
         <v>0</v>
       </c>
       <c r="K96" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="0">
         <v>0</v>
@@ -6718,14 +6890,22 @@
         <v>0</v>
       </c>
       <c r="N96" s="0"/>
-      <c r="O96" s="0"/>
-      <c r="P96" s="0"/>
+      <c r="O96" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>359</v>
+      </c>
       <c r="Q96" s="0"/>
       <c r="R96" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S96" s="0"/>
-      <c r="T96" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="T96" s="0" t="s">
+        <v>399</v>
+      </c>
       <c r="U96" s="0"/>
       <c r="V96" s="0"/>
       <c r="W96" s="0"/>
@@ -6733,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -6744,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D97" s="0"/>
       <c r="E97" s="0">
@@ -6754,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="H97" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="0">
         <v>0</v>
@@ -6766,26 +6946,24 @@
         <v>0</v>
       </c>
       <c r="K97" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="0">
         <v>0</v>
       </c>
       <c r="M97" s="0">
-        <v>0</v>
-      </c>
-      <c r="N97" s="0"/>
-      <c r="O97" s="0" t="s">
-        <v>294</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="O97" s="0"/>
       <c r="P97" s="0"/>
       <c r="Q97" s="0"/>
       <c r="R97" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S97" s="0" t="s">
-        <v>294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S97" s="0"/>
       <c r="T97" s="0"/>
       <c r="U97" s="0"/>
       <c r="V97" s="0"/>
@@ -6794,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -6805,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D98" s="0"/>
       <c r="E98" s="0">
@@ -6815,13 +6993,13 @@
         <v>0</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="H98" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" s="0">
         <v>0</v>
@@ -6833,9 +7011,11 @@
         <v>0</v>
       </c>
       <c r="M98" s="0">
-        <v>0</v>
-      </c>
-      <c r="N98" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>328</v>
+      </c>
       <c r="O98" s="0"/>
       <c r="P98" s="0"/>
       <c r="Q98" s="0"/>
@@ -6862,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D99" s="0"/>
       <c r="E99" s="0">
@@ -6872,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="H99" s="0">
         <v>0</v>
@@ -6881,10 +7061,10 @@
         <v>0</v>
       </c>
       <c r="J99" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="0">
         <v>0</v>
@@ -6894,13 +7074,17 @@
       </c>
       <c r="N99" s="0"/>
       <c r="O99" s="0"/>
-      <c r="P99" s="0"/>
+      <c r="P99" s="0" t="s">
+        <v>359</v>
+      </c>
       <c r="Q99" s="0"/>
       <c r="R99" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S99" s="0"/>
-      <c r="T99" s="0"/>
+      <c r="T99" s="0" t="s">
+        <v>399</v>
+      </c>
       <c r="U99" s="0"/>
       <c r="V99" s="0"/>
       <c r="W99" s="0"/>
@@ -6919,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D100" s="0"/>
       <c r="E100" s="0">
@@ -6929,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="H100" s="0">
         <v>1</v>
@@ -6976,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D101" s="0"/>
       <c r="E101" s="0">
@@ -6986,13 +7170,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="H101" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="0">
         <v>0</v>
@@ -7007,17 +7191,13 @@
         <v>0</v>
       </c>
       <c r="N101" s="0"/>
-      <c r="O101" s="0" t="s">
-        <v>295</v>
-      </c>
+      <c r="O101" s="0"/>
       <c r="P101" s="0"/>
       <c r="Q101" s="0"/>
       <c r="R101" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S101" s="0" t="s">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S101" s="0"/>
       <c r="T101" s="0"/>
       <c r="U101" s="0"/>
       <c r="V101" s="0"/>
@@ -7026,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -7037,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D102" s="0"/>
       <c r="E102" s="0">
@@ -7047,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="H102" s="0">
         <v>0</v>
@@ -7068,17 +7248,13 @@
         <v>0</v>
       </c>
       <c r="N102" s="0"/>
-      <c r="O102" s="0" t="s">
-        <v>296</v>
-      </c>
+      <c r="O102" s="0"/>
       <c r="P102" s="0"/>
       <c r="Q102" s="0"/>
       <c r="R102" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S102" s="0" t="s">
-        <v>326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S102" s="0"/>
       <c r="T102" s="0"/>
       <c r="U102" s="0"/>
       <c r="V102" s="0"/>
@@ -7087,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -7098,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D103" s="0"/>
       <c r="E103" s="0">
@@ -7108,19 +7284,19 @@
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="H103" s="0">
         <v>0</v>
       </c>
       <c r="I103" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="0">
         <v>0</v>
       </c>
       <c r="K103" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="0">
         <v>0</v>
@@ -7130,17 +7306,13 @@
       </c>
       <c r="N103" s="0"/>
       <c r="O103" s="0"/>
-      <c r="P103" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="P103" s="0"/>
       <c r="Q103" s="0"/>
       <c r="R103" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S103" s="0"/>
-      <c r="T103" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="T103" s="0"/>
       <c r="U103" s="0"/>
       <c r="V103" s="0"/>
       <c r="W103" s="0"/>
@@ -7159,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D104" s="0"/>
       <c r="E104" s="0">
@@ -7169,13 +7341,13 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="H104" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="0">
         <v>0</v>
@@ -7187,23 +7359,17 @@
         <v>0</v>
       </c>
       <c r="M104" s="0">
-        <v>1</v>
-      </c>
-      <c r="N104" s="0" t="s">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N104" s="0"/>
       <c r="O104" s="0"/>
-      <c r="P104" s="0" t="s">
-        <v>306</v>
-      </c>
+      <c r="P104" s="0"/>
       <c r="Q104" s="0"/>
       <c r="R104" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S104" s="0"/>
-      <c r="T104" s="0" t="s">
-        <v>306</v>
-      </c>
+      <c r="T104" s="0"/>
       <c r="U104" s="0"/>
       <c r="V104" s="0"/>
       <c r="W104" s="0"/>
@@ -7222,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D105" s="0"/>
       <c r="E105" s="0">
@@ -7232,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="H105" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="0">
         <v>0</v>
@@ -7244,29 +7410,27 @@
         <v>0</v>
       </c>
       <c r="K105" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="0">
         <v>0</v>
       </c>
       <c r="M105" s="0">
-        <v>1</v>
-      </c>
-      <c r="N105" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="O105" s="0"/>
-      <c r="P105" s="0" t="s">
-        <v>306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N105" s="0"/>
+      <c r="O105" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="P105" s="0"/>
       <c r="Q105" s="0"/>
       <c r="R105" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S105" s="0"/>
-      <c r="T105" s="0" t="s">
-        <v>306</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S105" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="T105" s="0"/>
       <c r="U105" s="0"/>
       <c r="V105" s="0"/>
       <c r="W105" s="0"/>
@@ -7274,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -7285,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="0">
@@ -7295,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="H106" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" s="0">
         <v>0</v>
@@ -7307,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="0">
         <v>0</v>
@@ -7316,22 +7480,14 @@
         <v>0</v>
       </c>
       <c r="N106" s="0"/>
-      <c r="O106" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="P106" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
       <c r="Q106" s="0"/>
       <c r="R106" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S106" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="T106" s="0" t="s">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S106" s="0"/>
+      <c r="T106" s="0"/>
       <c r="U106" s="0"/>
       <c r="V106" s="0"/>
       <c r="W106" s="0"/>
@@ -7339,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -7350,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="D107" s="0"/>
       <c r="E107" s="0">
@@ -7360,16 +7516,16 @@
         <v>0</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="H107" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="0">
         <v>0</v>
       </c>
       <c r="J107" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="0">
         <v>0</v>
@@ -7407,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="D108" s="0"/>
       <c r="E108" s="0">
@@ -7417,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="H108" s="0">
         <v>1</v>
@@ -7464,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D109" s="0"/>
       <c r="E109" s="0">
@@ -7474,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="H109" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" s="0">
         <v>0</v>
@@ -7495,13 +7651,17 @@
         <v>0</v>
       </c>
       <c r="N109" s="0"/>
-      <c r="O109" s="0"/>
+      <c r="O109" s="0" t="s">
+        <v>341</v>
+      </c>
       <c r="P109" s="0"/>
       <c r="Q109" s="0"/>
       <c r="R109" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S109" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S109" s="0" t="s">
+        <v>382</v>
+      </c>
       <c r="T109" s="0"/>
       <c r="U109" s="0"/>
       <c r="V109" s="0"/>
@@ -7510,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7521,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D110" s="0"/>
       <c r="E110" s="0">
@@ -7531,13 +7691,13 @@
         <v>0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="H110" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" s="0">
         <v>0</v>
@@ -7552,13 +7712,17 @@
         <v>0</v>
       </c>
       <c r="N110" s="0"/>
-      <c r="O110" s="0"/>
+      <c r="O110" s="0" t="s">
+        <v>342</v>
+      </c>
       <c r="P110" s="0"/>
       <c r="Q110" s="0"/>
       <c r="R110" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S110" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S110" s="0" t="s">
+        <v>383</v>
+      </c>
       <c r="T110" s="0"/>
       <c r="U110" s="0"/>
       <c r="V110" s="0"/>
@@ -7567,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -7578,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D111" s="0"/>
       <c r="E111" s="0">
@@ -7587,52 +7751,28 @@
       <c r="F111" s="0">
         <v>0</v>
       </c>
-      <c r="G111" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="H111" s="0">
-        <v>0</v>
-      </c>
-      <c r="I111" s="0">
-        <v>0</v>
-      </c>
-      <c r="J111" s="0">
-        <v>0</v>
-      </c>
-      <c r="K111" s="0">
-        <v>1</v>
-      </c>
-      <c r="L111" s="0">
-        <v>0</v>
-      </c>
-      <c r="M111" s="0">
-        <v>0</v>
-      </c>
+      <c r="G111" s="0"/>
+      <c r="H111" s="0"/>
+      <c r="I111" s="0"/>
+      <c r="J111" s="0"/>
+      <c r="K111" s="0"/>
+      <c r="L111" s="0"/>
+      <c r="M111" s="0"/>
       <c r="N111" s="0"/>
-      <c r="O111" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="P111" s="0" t="s">
-        <v>312</v>
-      </c>
+      <c r="O111" s="0"/>
+      <c r="P111" s="0"/>
       <c r="Q111" s="0"/>
       <c r="R111" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S111" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="T111" s="0" t="s">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S111" s="0"/>
+      <c r="T111" s="0"/>
       <c r="U111" s="0"/>
       <c r="V111" s="0"/>
       <c r="W111" s="0"/>
-      <c r="X111" s="0">
-        <v>0</v>
-      </c>
+      <c r="X111" s="0"/>
       <c r="Y111" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7643,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D112" s="0"/>
       <c r="E112" s="0">
@@ -7653,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="H112" s="0">
         <v>0</v>
@@ -7676,7 +7816,7 @@
       <c r="N112" s="0"/>
       <c r="O112" s="0"/>
       <c r="P112" s="0" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="Q112" s="0"/>
       <c r="R112" s="0" t="b">
@@ -7684,7 +7824,7 @@
       </c>
       <c r="S112" s="0"/>
       <c r="T112" s="0" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="U112" s="0"/>
       <c r="V112" s="0"/>
@@ -7704,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D113" s="0"/>
       <c r="E113" s="0">
@@ -7714,16 +7854,16 @@
         <v>0</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="H113" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="0">
         <v>0</v>
       </c>
       <c r="J113" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="0">
         <v>0</v>
@@ -7732,17 +7872,23 @@
         <v>0</v>
       </c>
       <c r="M113" s="0">
-        <v>0</v>
-      </c>
-      <c r="N113" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N113" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="O113" s="0"/>
-      <c r="P113" s="0"/>
+      <c r="P113" s="0" t="s">
+        <v>360</v>
+      </c>
       <c r="Q113" s="0"/>
       <c r="R113" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S113" s="0"/>
-      <c r="T113" s="0"/>
+      <c r="T113" s="0" t="s">
+        <v>400</v>
+      </c>
       <c r="U113" s="0"/>
       <c r="V113" s="0"/>
       <c r="W113" s="0"/>
@@ -7761,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D114" s="0"/>
       <c r="E114" s="0">
@@ -7771,13 +7917,13 @@
         <v>0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="H114" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" s="0">
         <v>0</v>
@@ -7789,17 +7935,23 @@
         <v>0</v>
       </c>
       <c r="M114" s="0">
-        <v>0</v>
-      </c>
-      <c r="N114" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N114" s="0" t="s">
+        <v>330</v>
+      </c>
       <c r="O114" s="0"/>
-      <c r="P114" s="0"/>
+      <c r="P114" s="0" t="s">
+        <v>360</v>
+      </c>
       <c r="Q114" s="0"/>
       <c r="R114" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S114" s="0"/>
-      <c r="T114" s="0"/>
+      <c r="T114" s="0" t="s">
+        <v>400</v>
+      </c>
       <c r="U114" s="0"/>
       <c r="V114" s="0"/>
       <c r="W114" s="0"/>
@@ -7818,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D115" s="0"/>
       <c r="E115" s="0">
@@ -7828,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="H115" s="0">
         <v>0</v>
@@ -7840,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="0">
         <v>0</v>
@@ -7849,14 +8001,22 @@
         <v>0</v>
       </c>
       <c r="N115" s="0"/>
-      <c r="O115" s="0"/>
-      <c r="P115" s="0"/>
+      <c r="O115" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="P115" s="0" t="s">
+        <v>361</v>
+      </c>
       <c r="Q115" s="0"/>
       <c r="R115" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S115" s="0"/>
-      <c r="T115" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="T115" s="0" t="s">
+        <v>401</v>
+      </c>
       <c r="U115" s="0"/>
       <c r="V115" s="0"/>
       <c r="W115" s="0"/>
@@ -7864,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="Y115" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -7875,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D116" s="0"/>
       <c r="E116" s="0">
@@ -7885,13 +8045,13 @@
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="H116" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" s="0">
         <v>0</v>
@@ -7932,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D117" s="0"/>
       <c r="E117" s="0">
@@ -7942,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="H117" s="0">
         <v>1</v>
@@ -7963,15 +8123,11 @@
         <v>0</v>
       </c>
       <c r="N117" s="0"/>
-      <c r="O117" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="P117" s="0" t="s">
-        <v>313</v>
-      </c>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
       <c r="Q117" s="0"/>
       <c r="R117" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117" s="0"/>
       <c r="T117" s="0"/>
@@ -7993,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="0">
@@ -8003,13 +8159,13 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="H118" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="0">
         <v>0</v>
@@ -8050,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D119" s="0"/>
       <c r="E119" s="0">
@@ -8060,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="H119" s="0">
         <v>1</v>
@@ -8107,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D120" s="0"/>
       <c r="E120" s="0">
@@ -8117,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="H120" s="0">
         <v>0</v>
@@ -8126,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="J120" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="0">
         <v>0</v>
@@ -8138,14 +8294,22 @@
         <v>0</v>
       </c>
       <c r="N120" s="0"/>
-      <c r="O120" s="0"/>
-      <c r="P120" s="0"/>
+      <c r="O120" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="P120" s="0" t="s">
+        <v>361</v>
+      </c>
       <c r="Q120" s="0"/>
       <c r="R120" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S120" s="0"/>
-      <c r="T120" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S120" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="T120" s="0" t="s">
+        <v>401</v>
+      </c>
       <c r="U120" s="0"/>
       <c r="V120" s="0"/>
       <c r="W120" s="0"/>
@@ -8153,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -8164,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D121" s="0"/>
       <c r="E121" s="0">
@@ -8174,10 +8338,10 @@
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="H121" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="0">
         <v>0</v>
@@ -8186,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="0">
         <v>0</v>
@@ -8196,13 +8360,17 @@
       </c>
       <c r="N121" s="0"/>
       <c r="O121" s="0"/>
-      <c r="P121" s="0"/>
+      <c r="P121" s="0" t="s">
+        <v>361</v>
+      </c>
       <c r="Q121" s="0"/>
       <c r="R121" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S121" s="0"/>
-      <c r="T121" s="0"/>
+      <c r="T121" s="0" t="s">
+        <v>401</v>
+      </c>
       <c r="U121" s="0"/>
       <c r="V121" s="0"/>
       <c r="W121" s="0"/>
@@ -8221,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D122" s="0"/>
       <c r="E122" s="0">
@@ -8231,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="H122" s="0">
         <v>0</v>
@@ -8240,10 +8408,10 @@
         <v>0</v>
       </c>
       <c r="J122" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="0">
         <v>0</v>
@@ -8278,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D123" s="0"/>
       <c r="E123" s="0">
@@ -8288,16 +8456,16 @@
         <v>0</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="H123" s="0">
         <v>0</v>
       </c>
       <c r="I123" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="0">
         <v>0</v>
@@ -8335,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D124" s="0"/>
       <c r="E124" s="0">
@@ -8345,10 +8513,10 @@
         <v>0</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H124" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" s="0">
         <v>0</v>
@@ -8392,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D125" s="0"/>
       <c r="E125" s="0">
@@ -8402,13 +8570,13 @@
         <v>0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="H125" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="0">
         <v>0</v>
@@ -8449,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="D126" s="0"/>
       <c r="E126" s="0">
@@ -8459,10 +8627,10 @@
         <v>0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="H126" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="0">
         <v>0</v>
@@ -8471,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" s="0">
         <v>0</v>
@@ -8480,11 +8648,15 @@
         <v>0</v>
       </c>
       <c r="N126" s="0"/>
-      <c r="O126" s="0"/>
-      <c r="P126" s="0"/>
+      <c r="O126" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="P126" s="0" t="s">
+        <v>362</v>
+      </c>
       <c r="Q126" s="0"/>
       <c r="R126" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S126" s="0"/>
       <c r="T126" s="0"/>
@@ -8506,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="0">
@@ -8516,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H127" s="0">
         <v>0</v>
@@ -8537,17 +8709,13 @@
         <v>0</v>
       </c>
       <c r="N127" s="0"/>
-      <c r="O127" s="0" t="s">
-        <v>300</v>
-      </c>
+      <c r="O127" s="0"/>
       <c r="P127" s="0"/>
       <c r="Q127" s="0"/>
       <c r="R127" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S127" s="0" t="s">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S127" s="0"/>
       <c r="T127" s="0"/>
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
@@ -8556,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="Y127" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8567,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0">
@@ -8577,13 +8745,13 @@
         <v>0</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="H128" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="0">
         <v>0</v>
@@ -8598,17 +8766,13 @@
         <v>0</v>
       </c>
       <c r="N128" s="0"/>
-      <c r="O128" s="0" t="s">
-        <v>301</v>
-      </c>
+      <c r="O128" s="0"/>
       <c r="P128" s="0"/>
       <c r="Q128" s="0"/>
       <c r="R128" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S128" s="0" t="s">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S128" s="0"/>
       <c r="T128" s="0"/>
       <c r="U128" s="0"/>
       <c r="V128" s="0"/>
@@ -8617,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="Y128" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -8628,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0">
@@ -8638,16 +8802,16 @@
         <v>0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="H129" s="0">
         <v>0</v>
       </c>
       <c r="I129" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="0">
         <v>0</v>
@@ -8677,6 +8841,584 @@
         <v>0</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D130" s="0"/>
+      <c r="E130" s="0">
+        <v>0</v>
+      </c>
+      <c r="F130" s="0">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="H130" s="0">
+        <v>1</v>
+      </c>
+      <c r="I130" s="0">
+        <v>0</v>
+      </c>
+      <c r="J130" s="0">
+        <v>0</v>
+      </c>
+      <c r="K130" s="0">
+        <v>0</v>
+      </c>
+      <c r="L130" s="0">
+        <v>0</v>
+      </c>
+      <c r="M130" s="0">
+        <v>0</v>
+      </c>
+      <c r="N130" s="0"/>
+      <c r="O130" s="0"/>
+      <c r="P130" s="0"/>
+      <c r="Q130" s="0"/>
+      <c r="R130" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S130" s="0"/>
+      <c r="T130" s="0"/>
+      <c r="U130" s="0"/>
+      <c r="V130" s="0"/>
+      <c r="W130" s="0"/>
+      <c r="X130" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" s="0"/>
+      <c r="E131" s="0">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0">
+        <v>0</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="H131" s="0">
+        <v>1</v>
+      </c>
+      <c r="I131" s="0">
+        <v>0</v>
+      </c>
+      <c r="J131" s="0">
+        <v>0</v>
+      </c>
+      <c r="K131" s="0">
+        <v>0</v>
+      </c>
+      <c r="L131" s="0">
+        <v>0</v>
+      </c>
+      <c r="M131" s="0">
+        <v>0</v>
+      </c>
+      <c r="N131" s="0"/>
+      <c r="O131" s="0"/>
+      <c r="P131" s="0"/>
+      <c r="Q131" s="0"/>
+      <c r="R131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S131" s="0"/>
+      <c r="T131" s="0"/>
+      <c r="U131" s="0"/>
+      <c r="V131" s="0"/>
+      <c r="W131" s="0"/>
+      <c r="X131" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D132" s="0"/>
+      <c r="E132" s="0">
+        <v>0</v>
+      </c>
+      <c r="F132" s="0">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H132" s="0">
+        <v>0</v>
+      </c>
+      <c r="I132" s="0">
+        <v>0</v>
+      </c>
+      <c r="J132" s="0">
+        <v>0</v>
+      </c>
+      <c r="K132" s="0">
+        <v>1</v>
+      </c>
+      <c r="L132" s="0">
+        <v>0</v>
+      </c>
+      <c r="M132" s="0">
+        <v>0</v>
+      </c>
+      <c r="N132" s="0"/>
+      <c r="O132" s="0"/>
+      <c r="P132" s="0"/>
+      <c r="Q132" s="0"/>
+      <c r="R132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S132" s="0"/>
+      <c r="T132" s="0"/>
+      <c r="U132" s="0"/>
+      <c r="V132" s="0"/>
+      <c r="W132" s="0"/>
+      <c r="X132" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="0"/>
+      <c r="E133" s="0">
+        <v>0</v>
+      </c>
+      <c r="F133" s="0">
+        <v>0</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="H133" s="0">
+        <v>0</v>
+      </c>
+      <c r="I133" s="0">
+        <v>0</v>
+      </c>
+      <c r="J133" s="0">
+        <v>1</v>
+      </c>
+      <c r="K133" s="0">
+        <v>0</v>
+      </c>
+      <c r="L133" s="0">
+        <v>0</v>
+      </c>
+      <c r="M133" s="0">
+        <v>0</v>
+      </c>
+      <c r="N133" s="0"/>
+      <c r="O133" s="0"/>
+      <c r="P133" s="0"/>
+      <c r="Q133" s="0"/>
+      <c r="R133" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S133" s="0"/>
+      <c r="T133" s="0"/>
+      <c r="U133" s="0"/>
+      <c r="V133" s="0"/>
+      <c r="W133" s="0"/>
+      <c r="X133" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134" s="0"/>
+      <c r="E134" s="0">
+        <v>0</v>
+      </c>
+      <c r="F134" s="0">
+        <v>0</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H134" s="0">
+        <v>1</v>
+      </c>
+      <c r="I134" s="0">
+        <v>0</v>
+      </c>
+      <c r="J134" s="0">
+        <v>0</v>
+      </c>
+      <c r="K134" s="0">
+        <v>0</v>
+      </c>
+      <c r="L134" s="0">
+        <v>0</v>
+      </c>
+      <c r="M134" s="0">
+        <v>0</v>
+      </c>
+      <c r="N134" s="0"/>
+      <c r="O134" s="0"/>
+      <c r="P134" s="0"/>
+      <c r="Q134" s="0"/>
+      <c r="R134" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S134" s="0"/>
+      <c r="T134" s="0"/>
+      <c r="U134" s="0"/>
+      <c r="V134" s="0"/>
+      <c r="W134" s="0"/>
+      <c r="X134" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135" s="0"/>
+      <c r="E135" s="0">
+        <v>0</v>
+      </c>
+      <c r="F135" s="0">
+        <v>0</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="H135" s="0">
+        <v>1</v>
+      </c>
+      <c r="I135" s="0">
+        <v>0</v>
+      </c>
+      <c r="J135" s="0">
+        <v>0</v>
+      </c>
+      <c r="K135" s="0">
+        <v>0</v>
+      </c>
+      <c r="L135" s="0">
+        <v>0</v>
+      </c>
+      <c r="M135" s="0">
+        <v>0</v>
+      </c>
+      <c r="N135" s="0"/>
+      <c r="O135" s="0"/>
+      <c r="P135" s="0"/>
+      <c r="Q135" s="0"/>
+      <c r="R135" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S135" s="0"/>
+      <c r="T135" s="0"/>
+      <c r="U135" s="0"/>
+      <c r="V135" s="0"/>
+      <c r="W135" s="0"/>
+      <c r="X135" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0">
+        <v>0</v>
+      </c>
+      <c r="F136" s="0">
+        <v>0</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="H136" s="0">
+        <v>0</v>
+      </c>
+      <c r="I136" s="0">
+        <v>0</v>
+      </c>
+      <c r="J136" s="0">
+        <v>0</v>
+      </c>
+      <c r="K136" s="0">
+        <v>1</v>
+      </c>
+      <c r="L136" s="0">
+        <v>0</v>
+      </c>
+      <c r="M136" s="0">
+        <v>0</v>
+      </c>
+      <c r="N136" s="0"/>
+      <c r="O136" s="0"/>
+      <c r="P136" s="0"/>
+      <c r="Q136" s="0"/>
+      <c r="R136" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S136" s="0"/>
+      <c r="T136" s="0"/>
+      <c r="U136" s="0"/>
+      <c r="V136" s="0"/>
+      <c r="W136" s="0"/>
+      <c r="X136" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="0"/>
+      <c r="E137" s="0">
+        <v>0</v>
+      </c>
+      <c r="F137" s="0">
+        <v>0</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H137" s="0">
+        <v>0</v>
+      </c>
+      <c r="I137" s="0">
+        <v>1</v>
+      </c>
+      <c r="J137" s="0">
+        <v>0</v>
+      </c>
+      <c r="K137" s="0">
+        <v>0</v>
+      </c>
+      <c r="L137" s="0">
+        <v>0</v>
+      </c>
+      <c r="M137" s="0">
+        <v>0</v>
+      </c>
+      <c r="N137" s="0"/>
+      <c r="O137" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="P137" s="0"/>
+      <c r="Q137" s="0"/>
+      <c r="R137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S137" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="T137" s="0"/>
+      <c r="U137" s="0"/>
+      <c r="V137" s="0"/>
+      <c r="W137" s="0"/>
+      <c r="X137" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0">
+        <v>0</v>
+      </c>
+      <c r="F138" s="0">
+        <v>0</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="H138" s="0">
+        <v>0</v>
+      </c>
+      <c r="I138" s="0">
+        <v>1</v>
+      </c>
+      <c r="J138" s="0">
+        <v>0</v>
+      </c>
+      <c r="K138" s="0">
+        <v>0</v>
+      </c>
+      <c r="L138" s="0">
+        <v>0</v>
+      </c>
+      <c r="M138" s="0">
+        <v>0</v>
+      </c>
+      <c r="N138" s="0"/>
+      <c r="O138" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="P138" s="0"/>
+      <c r="Q138" s="0"/>
+      <c r="R138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S138" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="T138" s="0"/>
+      <c r="U138" s="0"/>
+      <c r="V138" s="0"/>
+      <c r="W138" s="0"/>
+      <c r="X138" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="0"/>
+      <c r="E139" s="0">
+        <v>0</v>
+      </c>
+      <c r="F139" s="0">
+        <v>0</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H139" s="0">
+        <v>0</v>
+      </c>
+      <c r="I139" s="0">
+        <v>1</v>
+      </c>
+      <c r="J139" s="0">
+        <v>0</v>
+      </c>
+      <c r="K139" s="0">
+        <v>0</v>
+      </c>
+      <c r="L139" s="0">
+        <v>0</v>
+      </c>
+      <c r="M139" s="0">
+        <v>0</v>
+      </c>
+      <c r="N139" s="0"/>
+      <c r="O139" s="0"/>
+      <c r="P139" s="0"/>
+      <c r="Q139" s="0"/>
+      <c r="R139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S139" s="0"/>
+      <c r="T139" s="0"/>
+      <c r="U139" s="0"/>
+      <c r="V139" s="0"/>
+      <c r="W139" s="0"/>
+      <c r="X139" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>